--- a/_Calendario.xlsx
+++ b/_Calendario.xlsx
@@ -8,16 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Calendario" sheetId="9" r:id="rId1"/>
+    <sheet name="VARIABLES" sheetId="11" r:id="rId2"/>
+    <sheet name="PLANTEAMIENTO" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Calendario!$C$1:$AM$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Calendario!$C$1:$AM$82</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="268">
   <si>
     <t>W4</t>
   </si>
@@ -97,12 +99,6 @@
     <t>3.- Modelización</t>
   </si>
   <si>
-    <t>4.- Productivizar</t>
-  </si>
-  <si>
-    <t>5.- Herramienta web</t>
-  </si>
-  <si>
     <t>Problema del viajero?</t>
   </si>
   <si>
@@ -161,6 +157,672 @@
   </si>
   <si>
     <t>¿Quién?</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>- Google maps API</t>
+  </si>
+  <si>
+    <t>- Distancia Haversine</t>
+  </si>
+  <si>
+    <t>- Input: coordenadas dos puntos</t>
+  </si>
+  <si>
+    <t>- Output: Distancia y tiempo</t>
+  </si>
+  <si>
+    <t>2°) ¿Existen varias? Sí, calcular ruta óptima entre esos dos puntos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°) Recomendar los tres puntos de recarga más cercanos a la ruta </t>
+  </si>
+  <si>
+    <t>5°) Futuro: Autonomía del coche, n° paradas, selección puntos de recarga, tiempo trayecto, etc</t>
+  </si>
+  <si>
+    <t>1°) Calcular ruta entre dos puntos cualesquiera sabiendo las coordenadas</t>
+  </si>
+  <si>
+    <t>- Solver: cbc (gratuito)</t>
+  </si>
+  <si>
+    <t>b) Problema de optimización</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Función/es</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>F(x)=t1*x1 + t2*x2….n</t>
+  </si>
+  <si>
+    <t>Si hay varias funciones, hay que darle pesos</t>
+  </si>
+  <si>
+    <t>Coeficientes</t>
+  </si>
+  <si>
+    <t>dos opciones:</t>
+  </si>
+  <si>
+    <t>reales</t>
+  </si>
+  <si>
+    <t>estimados</t>
+  </si>
+  <si>
+    <t>Restricciones</t>
+  </si>
+  <si>
+    <t>Condiciones que le queremos poner al problema</t>
+  </si>
+  <si>
+    <t>fijas</t>
+  </si>
+  <si>
+    <t>generales</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>específicas</t>
+  </si>
+  <si>
+    <t>Penalizaciones</t>
+  </si>
+  <si>
+    <t>y ese exceso o defecto lo meto como penalización en la función objetivo</t>
+  </si>
+  <si>
+    <t>añadir nuevas variables que dependen de estas penalizacion (+/-)</t>
+  </si>
+  <si>
+    <t>F(x)=t1*x1 + t2*x2 + … +-q1 ...….n</t>
+  </si>
+  <si>
+    <t>Puntos de recarga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max, min </t>
+  </si>
+  <si>
+    <t>t = tiempo para llegar al nodo x</t>
+  </si>
+  <si>
+    <t>min tiempo</t>
+  </si>
+  <si>
+    <t>*min distancia?</t>
+  </si>
+  <si>
+    <t>las cosas invariables: rendimiento punto de carga,…</t>
+  </si>
+  <si>
+    <t>lo que no sepa, o lo que inicialmente no pueda asignar a un punto de carga, cosas que dependan de otras variables/palancas: tiempo de recarga, …</t>
+  </si>
+  <si>
+    <t>Suaviza restricciones</t>
+  </si>
+  <si>
+    <t>Dos opciones:</t>
+  </si>
+  <si>
+    <t>donde q1 es la penalización en el punto 1</t>
+  </si>
+  <si>
+    <t>van asociadas a los puntos de recarga</t>
+  </si>
+  <si>
+    <t>Modelo de optimización</t>
+  </si>
+  <si>
+    <t>Pasos</t>
+  </si>
+  <si>
+    <t>a) Problema de optimización</t>
+  </si>
+  <si>
+    <t>3°) Seleccionada la ruta óptima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Restricciones: Filtrar para aquellos puntos de recarga que estén a una distancia menor q la distancia por definir </t>
+  </si>
+  <si>
+    <t>*distancia media entre punto de inicio y salida?</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Accel</t>
+  </si>
+  <si>
+    <t>TopSpeed</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>FastCharge</t>
+  </si>
+  <si>
+    <t>RapidCharge</t>
+  </si>
+  <si>
+    <t>PowerTrain</t>
+  </si>
+  <si>
+    <t>PlugType</t>
+  </si>
+  <si>
+    <t>BodyStyle</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t>PriceEuro</t>
+  </si>
+  <si>
+    <t>Marca del coche</t>
+  </si>
+  <si>
+    <t>Modelo del coche</t>
+  </si>
+  <si>
+    <t>1.1.- Lista coches eléctricos</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Acceleration as 0-100 km/h</t>
+  </si>
+  <si>
+    <t>The top speed in km/h</t>
+  </si>
+  <si>
+    <t>Range in km</t>
+  </si>
+  <si>
+    <t>Efficiency Wh/km</t>
+  </si>
+  <si>
+    <t>Charge km/h</t>
+  </si>
+  <si>
+    <t>Yes / No</t>
+  </si>
+  <si>
+    <t>Front, rear, or all wheel drive</t>
+  </si>
+  <si>
+    <t>Plug type</t>
+  </si>
+  <si>
+    <t>Basic size or style</t>
+  </si>
+  <si>
+    <t>Market segment</t>
+  </si>
+  <si>
+    <t>Number of seats</t>
+  </si>
+  <si>
+    <t>Price in Germany before tax incentives</t>
+  </si>
+  <si>
+    <t>1.3.- Madrid</t>
+  </si>
+  <si>
+    <t>DISTRITO</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>EMPLAZAMIENTO</t>
+  </si>
+  <si>
+    <t>Nº CARGADORES</t>
+  </si>
+  <si>
+    <t>OPERADOR</t>
+  </si>
+  <si>
+    <t>COORX</t>
+  </si>
+  <si>
+    <t>COORY</t>
+  </si>
+  <si>
+    <t>LONGITUD</t>
+  </si>
+  <si>
+    <t>LATITUD</t>
+  </si>
+  <si>
+    <t>nº de variables</t>
+  </si>
+  <si>
+    <t>nº de puntos de recarga</t>
+  </si>
+  <si>
+    <t>CODI_OPENDATA</t>
+  </si>
+  <si>
+    <t>CODI_IDENTIFICACIO_ESTACIO</t>
+  </si>
+  <si>
+    <t>CODI_IDENTIFICACIO_EQUIP</t>
+  </si>
+  <si>
+    <t>NUMERO_DE_SERVEI</t>
+  </si>
+  <si>
+    <t>CODI_DEL_CONNECTOR</t>
+  </si>
+  <si>
+    <t>TIPO_CONNECTOR</t>
+  </si>
+  <si>
+    <t>POTENCIA_MAXIMA_DE_CARGA_(W)</t>
+  </si>
+  <si>
+    <t>NUM_SERVEIS_DEL_EQUIP</t>
+  </si>
+  <si>
+    <t>NUM_DE_CONNECTORS_AL_EQUIP</t>
+  </si>
+  <si>
+    <t>TIPOLOGIA_DE_CARREGA</t>
+  </si>
+  <si>
+    <t>DIRECCIO</t>
+  </si>
+  <si>
+    <t>CODI_DISTRICTE</t>
+  </si>
+  <si>
+    <t>NOM_DISTRICTE</t>
+  </si>
+  <si>
+    <t>CODI_BARRI</t>
+  </si>
+  <si>
+    <t>NOM_BARRI</t>
+  </si>
+  <si>
+    <t>CODI_POSTAL</t>
+  </si>
+  <si>
+    <t>CODI_ASIA</t>
+  </si>
+  <si>
+    <t>TIPUS_DE_ACCES</t>
+  </si>
+  <si>
+    <t>TELF</t>
+  </si>
+  <si>
+    <t>TARIFA</t>
+  </si>
+  <si>
+    <t>CONTROL_DE_ACCES</t>
+  </si>
+  <si>
+    <t>RESTRICCIO_DE_US</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>parroquia</t>
+  </si>
+  <si>
+    <t>barrio</t>
+  </si>
+  <si>
+    <t>calle</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>codigo_postal</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Nombre del Organismo</t>
+  </si>
+  <si>
+    <t>DatosPersonales</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>CodigoPostal</t>
+  </si>
+  <si>
+    <t>Localidad</t>
+  </si>
+  <si>
+    <t>SoloClasificar</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Telefax oficial</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>e-mail</t>
+  </si>
+  <si>
+    <t>Páginas de internet</t>
+  </si>
+  <si>
+    <t>Posicion</t>
+  </si>
+  <si>
+    <t>Información adicional</t>
+  </si>
+  <si>
+    <t>Directorio Superior</t>
+  </si>
+  <si>
+    <t>Identificador Directorio Superior</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>ultimaActualizacion</t>
+  </si>
+  <si>
+    <t>Enlace al contenido</t>
+  </si>
+  <si>
+    <t>gml_id</t>
+  </si>
+  <si>
+    <t>IdVrtPPElectrolinera</t>
+  </si>
+  <si>
+    <t>IdPerVertPPElectrolinera</t>
+  </si>
+  <si>
+    <t>NombreDireccion</t>
+  </si>
+  <si>
+    <t>TV_NOMBRE</t>
+  </si>
+  <si>
+    <t>TDIS_DES_NOMBRE</t>
+  </si>
+  <si>
+    <t>TBAR_DES_NOMBRE</t>
+  </si>
+  <si>
+    <t>NumeroPlazas</t>
+  </si>
+  <si>
+    <t>NumeroMangeras</t>
+  </si>
+  <si>
+    <t>TipoCarga</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Gasolineras de España</t>
+  </si>
+  <si>
+    <t>Variables Coche</t>
+  </si>
+  <si>
+    <t>Nº Viajeros</t>
+  </si>
+  <si>
+    <t>Equipaje</t>
+  </si>
+  <si>
+    <t>Carga inicial S/N</t>
+  </si>
+  <si>
+    <t>1.2.- Gasolineras</t>
+  </si>
+  <si>
+    <t>Variables Usuario / Input Modelo</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
+    <t>Nº Paradas que desea hacer</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>objectid</t>
+  </si>
+  <si>
+    <t>provincia</t>
+  </si>
+  <si>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>localidad</t>
+  </si>
+  <si>
+    <t>código_po</t>
+  </si>
+  <si>
+    <t>dirección</t>
+  </si>
+  <si>
+    <t>margen</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>precio_gas</t>
+  </si>
+  <si>
+    <t>precio_g_1</t>
+  </si>
+  <si>
+    <t>precio_g_2</t>
+  </si>
+  <si>
+    <t>precio_bio</t>
+  </si>
+  <si>
+    <t>precio_nue</t>
+  </si>
+  <si>
+    <t>precio_b_1</t>
+  </si>
+  <si>
+    <t>f__éster_</t>
+  </si>
+  <si>
+    <t>f__bioalco</t>
+  </si>
+  <si>
+    <t>precio_g_3</t>
+  </si>
+  <si>
+    <t>precio_g_4</t>
+  </si>
+  <si>
+    <t>precio_g_5</t>
+  </si>
+  <si>
+    <t>precio_g_6</t>
+  </si>
+  <si>
+    <t>rótulo</t>
+  </si>
+  <si>
+    <t>tipo_venta</t>
+  </si>
+  <si>
+    <t>rem_</t>
+  </si>
+  <si>
+    <t>horario</t>
+  </si>
+  <si>
+    <t>horario00</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>nº de gasolineras</t>
+  </si>
+  <si>
+    <t>1.4.- Valencia</t>
+  </si>
+  <si>
+    <t>1.5.- Vigo</t>
+  </si>
+  <si>
+    <t>1.6.- Castilla y León</t>
+  </si>
+  <si>
+    <t>1.7.- Bilbao</t>
+  </si>
+  <si>
+    <t>1.8.- Barcelona</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>a) StreetOverView</t>
+  </si>
+  <si>
+    <t>Por Comunidad --&gt; no disponible</t>
+  </si>
+  <si>
+    <t>5.- Productivizar</t>
+  </si>
+  <si>
+    <t>6.- Herramienta web</t>
+  </si>
+  <si>
+    <t>4.- Visualización</t>
+  </si>
+  <si>
+    <t>Trabajar variables</t>
+  </si>
+  <si>
+    <t>Estimaciones tiempo, autonomía, etc</t>
+  </si>
+  <si>
+    <t>Coordenadas puntos - API Google</t>
+  </si>
+  <si>
+    <t>Encontrar ruta con restricción 2 puntos</t>
+  </si>
+  <si>
+    <t>Graficar ruta entre dos puntos con coche</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Detectar variables importantes</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Estimar capacidad de carga</t>
+  </si>
+  <si>
+    <t>Clasificación público/privado</t>
+  </si>
+  <si>
+    <t>no útiles</t>
   </si>
 </sst>
 </file>
@@ -170,7 +832,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,8 +1135,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="48">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,18 +1472,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -965,8 +1733,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="211">
+  <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1178,8 +1975,42 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1291,16 +2122,10 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1312,21 +2137,47 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,8 +2208,63 @@
     <xf numFmtId="0" fontId="37" fillId="34" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="211">
+  <cellStyles count="245">
     <cellStyle name="% 2" xfId="1"/>
     <cellStyle name="20% - Accent1" xfId="2"/>
     <cellStyle name="20% - Accent1 2" xfId="95"/>
@@ -1378,21 +2284,27 @@
     <cellStyle name="20% - Accent6" xfId="7"/>
     <cellStyle name="20% - Accent6 2" xfId="100"/>
     <cellStyle name="20% - Accent6_BBDD Activaciones" xfId="115"/>
+    <cellStyle name="20% - Énfasis1" xfId="222" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis1 2" xfId="8"/>
     <cellStyle name="20% - Énfasis1 2 2" xfId="116"/>
     <cellStyle name="20% - Énfasis1 3" xfId="117"/>
+    <cellStyle name="20% - Énfasis2" xfId="226" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2 2" xfId="9"/>
     <cellStyle name="20% - Énfasis2 2 2" xfId="118"/>
     <cellStyle name="20% - Énfasis2 3" xfId="119"/>
+    <cellStyle name="20% - Énfasis3" xfId="230" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3 2" xfId="10"/>
     <cellStyle name="20% - Énfasis3 2 2" xfId="120"/>
     <cellStyle name="20% - Énfasis3 3" xfId="121"/>
+    <cellStyle name="20% - Énfasis4" xfId="234" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis4 2" xfId="11"/>
     <cellStyle name="20% - Énfasis4 2 2" xfId="122"/>
     <cellStyle name="20% - Énfasis4 3" xfId="123"/>
+    <cellStyle name="20% - Énfasis5" xfId="238" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis5 2" xfId="12"/>
     <cellStyle name="20% - Énfasis5 2 2" xfId="124"/>
     <cellStyle name="20% - Énfasis5 3" xfId="125"/>
+    <cellStyle name="20% - Énfasis6" xfId="242" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis6 2" xfId="13"/>
     <cellStyle name="20% - Énfasis6 2 2" xfId="126"/>
     <cellStyle name="20% - Énfasis6 3" xfId="127"/>
@@ -1414,21 +2326,27 @@
     <cellStyle name="40% - Accent6" xfId="19"/>
     <cellStyle name="40% - Accent6 2" xfId="106"/>
     <cellStyle name="40% - Accent6_BBDD Activaciones" xfId="133"/>
+    <cellStyle name="40% - Énfasis1" xfId="223" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis1 2" xfId="20"/>
     <cellStyle name="40% - Énfasis1 2 2" xfId="134"/>
     <cellStyle name="40% - Énfasis1 3" xfId="135"/>
+    <cellStyle name="40% - Énfasis2" xfId="227" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis2 2" xfId="21"/>
     <cellStyle name="40% - Énfasis2 2 2" xfId="136"/>
     <cellStyle name="40% - Énfasis2 3" xfId="137"/>
+    <cellStyle name="40% - Énfasis3" xfId="231" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis3 2" xfId="22"/>
     <cellStyle name="40% - Énfasis3 2 2" xfId="138"/>
     <cellStyle name="40% - Énfasis3 3" xfId="139"/>
+    <cellStyle name="40% - Énfasis4" xfId="235" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis4 2" xfId="23"/>
     <cellStyle name="40% - Énfasis4 2 2" xfId="140"/>
     <cellStyle name="40% - Énfasis4 3" xfId="141"/>
+    <cellStyle name="40% - Énfasis5" xfId="239" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis5 2" xfId="24"/>
     <cellStyle name="40% - Énfasis5 2 2" xfId="142"/>
     <cellStyle name="40% - Énfasis5 3" xfId="143"/>
+    <cellStyle name="40% - Énfasis6" xfId="243" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis6 2" xfId="25"/>
     <cellStyle name="40% - Énfasis6 2 2" xfId="144"/>
     <cellStyle name="40% - Énfasis6 3" xfId="145"/>
@@ -1438,21 +2356,27 @@
     <cellStyle name="60% - Accent4" xfId="29"/>
     <cellStyle name="60% - Accent5" xfId="30"/>
     <cellStyle name="60% - Accent6" xfId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="224" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis1 2" xfId="32"/>
     <cellStyle name="60% - Énfasis1 2 2" xfId="146"/>
     <cellStyle name="60% - Énfasis1 3" xfId="147"/>
+    <cellStyle name="60% - Énfasis2" xfId="228" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis2 2" xfId="33"/>
     <cellStyle name="60% - Énfasis2 2 2" xfId="148"/>
     <cellStyle name="60% - Énfasis2 3" xfId="149"/>
+    <cellStyle name="60% - Énfasis3" xfId="232" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis3 2" xfId="34"/>
     <cellStyle name="60% - Énfasis3 2 2" xfId="150"/>
     <cellStyle name="60% - Énfasis3 3" xfId="151"/>
+    <cellStyle name="60% - Énfasis4" xfId="236" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis4 2" xfId="35"/>
     <cellStyle name="60% - Énfasis4 2 2" xfId="152"/>
     <cellStyle name="60% - Énfasis4 3" xfId="153"/>
+    <cellStyle name="60% - Énfasis5" xfId="240" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5 2" xfId="36"/>
     <cellStyle name="60% - Énfasis5 2 2" xfId="154"/>
     <cellStyle name="60% - Énfasis5 3" xfId="155"/>
+    <cellStyle name="60% - Énfasis6" xfId="244" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6 2" xfId="37"/>
     <cellStyle name="60% - Énfasis6 2 2" xfId="156"/>
     <cellStyle name="60% - Énfasis6 3" xfId="157"/>
@@ -1468,6 +2392,7 @@
     <cellStyle name="Buena 2 2" xfId="158"/>
     <cellStyle name="Buena 3" xfId="159"/>
     <cellStyle name="Calculation" xfId="46"/>
+    <cellStyle name="Cálculo" xfId="218" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cálculo 2" xfId="47"/>
     <cellStyle name="Cálculo 2 2" xfId="160"/>
     <cellStyle name="Cálculo 3" xfId="161"/>
@@ -1484,21 +2409,27 @@
     <cellStyle name="Encabezado 4 2" xfId="51"/>
     <cellStyle name="Encabezado 4 2 2" xfId="166"/>
     <cellStyle name="Encabezado 4 3" xfId="167"/>
+    <cellStyle name="Énfasis1" xfId="221" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis1 2" xfId="52"/>
     <cellStyle name="Énfasis1 2 2" xfId="168"/>
     <cellStyle name="Énfasis1 3" xfId="169"/>
+    <cellStyle name="Énfasis2" xfId="225" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Énfasis2 2" xfId="53"/>
     <cellStyle name="Énfasis2 2 2" xfId="170"/>
     <cellStyle name="Énfasis2 3" xfId="171"/>
+    <cellStyle name="Énfasis3" xfId="229" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Énfasis3 2" xfId="54"/>
     <cellStyle name="Énfasis3 2 2" xfId="172"/>
     <cellStyle name="Énfasis3 3" xfId="173"/>
+    <cellStyle name="Énfasis4" xfId="233" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Énfasis4 2" xfId="55"/>
     <cellStyle name="Énfasis4 2 2" xfId="174"/>
     <cellStyle name="Énfasis4 3" xfId="175"/>
+    <cellStyle name="Énfasis5" xfId="237" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis5 2" xfId="56"/>
     <cellStyle name="Énfasis5 2 2" xfId="176"/>
     <cellStyle name="Énfasis5 3" xfId="177"/>
+    <cellStyle name="Énfasis6" xfId="241" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Énfasis6 2" xfId="57"/>
     <cellStyle name="Énfasis6 2 2" xfId="178"/>
     <cellStyle name="Énfasis6 3" xfId="179"/>
@@ -1512,6 +2443,7 @@
     <cellStyle name="Heading 2" xfId="62"/>
     <cellStyle name="Heading 3" xfId="63"/>
     <cellStyle name="Heading 4" xfId="64"/>
+    <cellStyle name="Incorrecto" xfId="215" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Incorrecto 2" xfId="65"/>
     <cellStyle name="Incorrecto 2 2" xfId="182"/>
     <cellStyle name="Incorrecto 3" xfId="183"/>
@@ -1519,6 +2451,7 @@
     <cellStyle name="Linked Cell" xfId="67"/>
     <cellStyle name="Millares 2" xfId="184"/>
     <cellStyle name="Millares 3" xfId="90"/>
+    <cellStyle name="Neutral" xfId="216" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="68"/>
     <cellStyle name="Neutral 2 2" xfId="185"/>
     <cellStyle name="Neutral 3" xfId="186"/>
@@ -1545,6 +2478,7 @@
     <cellStyle name="Note 2" xfId="107"/>
     <cellStyle name="Output" xfId="72"/>
     <cellStyle name="Porcentaje 2" xfId="194"/>
+    <cellStyle name="Salida" xfId="217" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Salida 2" xfId="73"/>
     <cellStyle name="Salida 2 2" xfId="195"/>
     <cellStyle name="Salida 3" xfId="196"/>
@@ -1552,20 +2486,26 @@
     <cellStyle name="Texto de advertencia 2" xfId="74"/>
     <cellStyle name="Texto de advertencia 2 2" xfId="197"/>
     <cellStyle name="Texto de advertencia 3" xfId="198"/>
+    <cellStyle name="Texto explicativo" xfId="219" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Texto explicativo 2" xfId="75"/>
     <cellStyle name="Texto explicativo 2 2" xfId="199"/>
     <cellStyle name="Texto explicativo 3" xfId="200"/>
     <cellStyle name="Title" xfId="76"/>
+    <cellStyle name="Título" xfId="211" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="212" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 1 2" xfId="77"/>
     <cellStyle name="Título 1 2 2" xfId="201"/>
     <cellStyle name="Título 1 3" xfId="202"/>
+    <cellStyle name="Título 2" xfId="213" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 2 2" xfId="78"/>
     <cellStyle name="Título 2 2 2" xfId="203"/>
     <cellStyle name="Título 2 3" xfId="204"/>
+    <cellStyle name="Título 3" xfId="214" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Título 3 2" xfId="79"/>
     <cellStyle name="Título 3 2 2" xfId="205"/>
     <cellStyle name="Título 3 3" xfId="206"/>
     <cellStyle name="Título 4" xfId="80"/>
+    <cellStyle name="Total" xfId="220" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total 2" xfId="81"/>
     <cellStyle name="Total 2 2" xfId="207"/>
     <cellStyle name="Total 3" xfId="208"/>
@@ -1876,7 +2816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5857875" y="1924050"/>
+          <a:off x="5381625" y="1924050"/>
           <a:ext cx="144000" cy="118800"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -1922,13 +2862,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>220200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>166425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1939,6 +2879,130 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="657225" y="6896100"/>
+          <a:ext cx="144000" cy="118800"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="9 Estrella de 5 puntas"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="7610475"/>
+          <a:ext cx="144000" cy="118800"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>172575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="11 Estrella de 5 puntas"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="7800975"/>
           <a:ext cx="144000" cy="118800"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -2270,20 +3334,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF86"/>
+  <dimension ref="A1:DF94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z39" sqref="Z39"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="45" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="1.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
     <col min="4" max="7" width="3" style="1" customWidth="1"/>
     <col min="8" max="16" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="36" width="3" style="1" customWidth="1"/>
@@ -2295,85 +3359,85 @@
     <row r="1" spans="1:110" ht="12" customHeight="1"/>
     <row r="2" spans="1:110" ht="27.75" customHeight="1">
       <c r="C2" s="9"/>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="54"/>
-      <c r="BK2" s="54"/>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="54"/>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="54"/>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="66"/>
+      <c r="BI2" s="66"/>
+      <c r="BJ2" s="66"/>
+      <c r="BK2" s="66"/>
+      <c r="BL2" s="66"/>
+      <c r="BM2" s="66"/>
+      <c r="BN2" s="66"/>
+      <c r="BO2" s="66"/>
+      <c r="BP2" s="66"/>
+      <c r="BQ2" s="66"/>
+      <c r="BR2" s="66"/>
+      <c r="BS2" s="66"/>
+      <c r="BT2" s="66"/>
+      <c r="BU2" s="66"/>
+      <c r="BV2" s="66"/>
+      <c r="BW2" s="66"/>
+      <c r="BX2" s="66"/>
+      <c r="BY2" s="66"/>
+      <c r="BZ2" s="66"/>
+      <c r="CA2" s="66"/>
+      <c r="CB2" s="66"/>
     </row>
     <row r="3" spans="1:110" ht="10.5" customHeight="1">
       <c r="CD3" s="25"/>
@@ -2403,89 +3467,89 @@
     </row>
     <row r="4" spans="1:110" ht="30" customHeight="1">
       <c r="C4" s="3"/>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="55" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="56"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="58" t="s">
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="68"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="59"/>
-      <c r="BQ4" s="59"/>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="59"/>
-      <c r="BU4" s="59"/>
-      <c r="BV4" s="59"/>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="59"/>
-      <c r="BY4" s="59"/>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="59"/>
-      <c r="CB4" s="59"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="71"/>
+      <c r="BO4" s="71"/>
+      <c r="BP4" s="71"/>
+      <c r="BQ4" s="71"/>
+      <c r="BR4" s="71"/>
+      <c r="BS4" s="71"/>
+      <c r="BT4" s="71"/>
+      <c r="BU4" s="71"/>
+      <c r="BV4" s="71"/>
+      <c r="BW4" s="71"/>
+      <c r="BX4" s="71"/>
+      <c r="BY4" s="71"/>
+      <c r="BZ4" s="71"/>
+      <c r="CA4" s="71"/>
+      <c r="CB4" s="71"/>
       <c r="CC4" s="25"/>
       <c r="CD4" s="25"/>
       <c r="CE4" s="25"/>
@@ -2513,7 +3577,7 @@
       <c r="DA4" s="25"/>
     </row>
     <row r="5" spans="1:110" s="5" customFormat="1" ht="3.75" customHeight="1">
-      <c r="A5" s="46"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="36"/>
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
@@ -2579,109 +3643,109 @@
       <c r="DA5" s="25"/>
     </row>
     <row r="6" spans="1:110">
-      <c r="A6" s="45" t="s">
-        <v>47</v>
+      <c r="A6" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="50" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="50" t="s">
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="50" t="s">
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="50" t="s">
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="50" t="s">
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="50" t="s">
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="76"/>
+      <c r="AP6" s="76"/>
+      <c r="AQ6" s="76"/>
+      <c r="AR6" s="76"/>
+      <c r="AS6" s="77"/>
+      <c r="AT6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="50" t="s">
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="76"/>
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="77"/>
+      <c r="BA6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="BB6" s="51"/>
-      <c r="BC6" s="51"/>
-      <c r="BD6" s="51"/>
-      <c r="BE6" s="51"/>
-      <c r="BF6" s="51"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="50" t="s">
+      <c r="BB6" s="76"/>
+      <c r="BC6" s="76"/>
+      <c r="BD6" s="76"/>
+      <c r="BE6" s="76"/>
+      <c r="BF6" s="76"/>
+      <c r="BG6" s="77"/>
+      <c r="BH6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="BI6" s="51"/>
-      <c r="BJ6" s="51"/>
-      <c r="BK6" s="51"/>
-      <c r="BL6" s="51"/>
-      <c r="BM6" s="51"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="50" t="s">
+      <c r="BI6" s="76"/>
+      <c r="BJ6" s="76"/>
+      <c r="BK6" s="76"/>
+      <c r="BL6" s="76"/>
+      <c r="BM6" s="76"/>
+      <c r="BN6" s="77"/>
+      <c r="BO6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="BP6" s="51"/>
-      <c r="BQ6" s="51"/>
-      <c r="BR6" s="51"/>
-      <c r="BS6" s="51"/>
-      <c r="BT6" s="51"/>
-      <c r="BU6" s="52"/>
-      <c r="BV6" s="50" t="s">
+      <c r="BP6" s="76"/>
+      <c r="BQ6" s="76"/>
+      <c r="BR6" s="76"/>
+      <c r="BS6" s="76"/>
+      <c r="BT6" s="76"/>
+      <c r="BU6" s="77"/>
+      <c r="BV6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="BW6" s="51"/>
-      <c r="BX6" s="51"/>
-      <c r="BY6" s="51"/>
-      <c r="BZ6" s="51"/>
-      <c r="CA6" s="51"/>
-      <c r="CB6" s="52"/>
+      <c r="BW6" s="76"/>
+      <c r="BX6" s="76"/>
+      <c r="BY6" s="76"/>
+      <c r="BZ6" s="76"/>
+      <c r="CA6" s="76"/>
+      <c r="CB6" s="77"/>
       <c r="CC6" s="25"/>
       <c r="CD6" s="25"/>
       <c r="CE6" s="25"/>
@@ -3084,7 +4148,7 @@
       <c r="DE8" s="25"/>
     </row>
     <row r="9" spans="1:110" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="35"/>
       <c r="C9" s="8"/>
       <c r="D9" s="12"/>
@@ -3196,7 +4260,7 @@
       <c r="DF9" s="25"/>
     </row>
     <row r="10" spans="1:110" s="22" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="35"/>
       <c r="C10" s="8"/>
       <c r="D10" s="12"/>
@@ -3312,16 +4376,16 @@
       <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="30"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="42"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
       <c r="N11" s="28"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="30"/>
@@ -3420,8 +4484,8 @@
       <c r="DF11" s="25"/>
     </row>
     <row r="12" spans="1:110" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A12" s="45" t="s">
-        <v>39</v>
+      <c r="A12" s="96" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="14" t="s">
@@ -3536,9 +4600,10 @@
       <c r="DF12" s="25"/>
     </row>
     <row r="13" spans="1:110" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A13" s="95"/>
       <c r="B13" s="38"/>
       <c r="C13" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="28"/>
@@ -3649,10 +4714,10 @@
       <c r="DF13" s="25"/>
     </row>
     <row r="14" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="38"/>
       <c r="C14" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="28"/>
@@ -3733,10 +4798,10 @@
       <c r="CB14" s="30"/>
     </row>
     <row r="15" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="38"/>
       <c r="C15" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="28"/>
@@ -3816,31 +4881,31 @@
       <c r="CA15" s="29"/>
       <c r="CB15" s="30"/>
     </row>
-    <row r="16" spans="1:110" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A16" s="45" t="s">
-        <v>44</v>
-      </c>
+    <row r="16" spans="1:110" s="86" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A16" s="95"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="C16" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="29"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="30"/>
       <c r="R16" s="28"/>
       <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
+      <c r="T16" s="92" t="s">
+        <v>46</v>
+      </c>
       <c r="U16" s="28"/>
       <c r="V16" s="33"/>
       <c r="W16" s="29"/>
@@ -3901,42 +4966,14 @@
       <c r="BZ16" s="31"/>
       <c r="CA16" s="29"/>
       <c r="CB16" s="30"/>
-      <c r="CC16" s="25"/>
-      <c r="CD16" s="25"/>
-      <c r="CE16" s="25"/>
-      <c r="CF16" s="25"/>
-      <c r="CG16" s="25"/>
-      <c r="CH16" s="25"/>
-      <c r="CI16" s="25"/>
-      <c r="CJ16" s="25"/>
-      <c r="CK16" s="25"/>
-      <c r="CL16" s="25"/>
-      <c r="CM16" s="25"/>
-      <c r="CN16" s="25"/>
-      <c r="CO16" s="25"/>
-      <c r="CP16" s="25"/>
-      <c r="CQ16" s="25"/>
-      <c r="CR16" s="25"/>
-      <c r="CS16" s="25"/>
-      <c r="CT16" s="25"/>
-      <c r="CU16" s="25"/>
-      <c r="CV16" s="25"/>
-      <c r="CW16" s="25"/>
-      <c r="CX16" s="25"/>
-      <c r="CY16" s="25"/>
-      <c r="CZ16" s="25"/>
-      <c r="DA16" s="25"/>
-      <c r="DB16" s="25"/>
-      <c r="DC16" s="25"/>
-      <c r="DD16" s="25"/>
-      <c r="DE16" s="25"/>
-      <c r="DF16" s="25"/>
-    </row>
-    <row r="17" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A17" s="45"/>
+    </row>
+    <row r="17" spans="1:110" s="86" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A17" s="95" t="s">
+        <v>37</v>
+      </c>
       <c r="B17" s="38"/>
       <c r="C17" s="15" t="s">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="28"/>
@@ -3955,13 +4992,13 @@
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
       <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
+      <c r="U17" s="47"/>
       <c r="V17" s="33"/>
       <c r="W17" s="29"/>
       <c r="X17" s="30"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
       <c r="AB17" s="28"/>
       <c r="AC17" s="33"/>
       <c r="AD17" s="29"/>
@@ -4016,22 +5053,24 @@
       <c r="CA17" s="29"/>
       <c r="CB17" s="30"/>
     </row>
-    <row r="18" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A18" s="45"/>
+    <row r="18" spans="1:110" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A18" s="96" t="s">
+        <v>42</v>
+      </c>
       <c r="B18" s="38"/>
-      <c r="C18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="C18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="29"/>
       <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
@@ -4099,12 +5138,42 @@
       <c r="BZ18" s="31"/>
       <c r="CA18" s="29"/>
       <c r="CB18" s="30"/>
+      <c r="CC18" s="25"/>
+      <c r="CD18" s="25"/>
+      <c r="CE18" s="25"/>
+      <c r="CF18" s="25"/>
+      <c r="CG18" s="25"/>
+      <c r="CH18" s="25"/>
+      <c r="CI18" s="25"/>
+      <c r="CJ18" s="25"/>
+      <c r="CK18" s="25"/>
+      <c r="CL18" s="25"/>
+      <c r="CM18" s="25"/>
+      <c r="CN18" s="25"/>
+      <c r="CO18" s="25"/>
+      <c r="CP18" s="25"/>
+      <c r="CQ18" s="25"/>
+      <c r="CR18" s="25"/>
+      <c r="CS18" s="25"/>
+      <c r="CT18" s="25"/>
+      <c r="CU18" s="25"/>
+      <c r="CV18" s="25"/>
+      <c r="CW18" s="25"/>
+      <c r="CX18" s="25"/>
+      <c r="CY18" s="25"/>
+      <c r="CZ18" s="25"/>
+      <c r="DA18" s="25"/>
+      <c r="DB18" s="25"/>
+      <c r="DC18" s="25"/>
+      <c r="DD18" s="25"/>
+      <c r="DE18" s="25"/>
+      <c r="DF18" s="25"/>
     </row>
     <row r="19" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="38"/>
       <c r="C19" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="28"/>
@@ -4113,9 +5182,10 @@
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
       <c r="J19" s="30"/>
-      <c r="K19" s="28"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="M19" s="92" t="s">
+        <v>46</v>
+      </c>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
       <c r="P19" s="29"/>
@@ -4185,10 +5255,10 @@
       <c r="CB19" s="30"/>
     </row>
     <row r="20" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A20" s="45"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="38"/>
       <c r="C20" s="15" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="28"/>
@@ -4199,7 +5269,9 @@
       <c r="J20" s="30"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="M20" s="92" t="s">
+        <v>245</v>
+      </c>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
       <c r="P20" s="29"/>
@@ -4268,11 +5340,11 @@
       <c r="CA20" s="29"/>
       <c r="CB20" s="30"/>
     </row>
-    <row r="21" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A21" s="45"/>
+    <row r="21" spans="1:110" s="86" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A21" s="95"/>
       <c r="B21" s="38"/>
       <c r="C21" s="15" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="28"/>
@@ -4290,7 +5362,9 @@
       <c r="Q21" s="30"/>
       <c r="R21" s="28"/>
       <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
+      <c r="T21" s="92" t="s">
+        <v>46</v>
+      </c>
       <c r="U21" s="28"/>
       <c r="V21" s="33"/>
       <c r="W21" s="29"/>
@@ -4353,10 +5427,10 @@
       <c r="CB21" s="30"/>
     </row>
     <row r="22" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="38"/>
       <c r="C22" s="15" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="28"/>
@@ -4437,23 +5511,21 @@
       <c r="CB22" s="30"/>
     </row>
     <row r="23" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A23" s="45" t="s">
-        <v>44</v>
-      </c>
+      <c r="A23" s="95"/>
       <c r="B23" s="38"/>
-      <c r="C23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="C23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="29"/>
       <c r="J23" s="30"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
       <c r="P23" s="29"/>
@@ -4523,10 +5595,10 @@
       <c r="CB23" s="30"/>
     </row>
     <row r="24" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="38"/>
       <c r="C24" s="15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="28"/>
@@ -4607,10 +5679,10 @@
       <c r="CB24" s="30"/>
     </row>
     <row r="25" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="38"/>
       <c r="C25" s="15" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="28"/>
@@ -4691,21 +5763,23 @@
       <c r="CB25" s="30"/>
     </row>
     <row r="26" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="96" t="s">
+        <v>42</v>
+      </c>
       <c r="B26" s="38"/>
-      <c r="C26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="C26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="29"/>
       <c r="J26" s="30"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
       <c r="P26" s="29"/>
@@ -4775,10 +5849,10 @@
       <c r="CB26" s="30"/>
     </row>
     <row r="27" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="38"/>
       <c r="C27" s="15" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="28"/>
@@ -4859,10 +5933,10 @@
       <c r="CB27" s="30"/>
     </row>
     <row r="28" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="38"/>
       <c r="C28" s="15" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="28"/>
@@ -4943,12 +6017,10 @@
       <c r="CB28" s="30"/>
     </row>
     <row r="29" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A29" s="45" t="s">
-        <v>39</v>
-      </c>
+      <c r="A29" s="95"/>
       <c r="B29" s="38"/>
-      <c r="C29" s="14" t="s">
-        <v>36</v>
+      <c r="C29" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="28"/>
@@ -5029,12 +6101,10 @@
       <c r="CB29" s="30"/>
     </row>
     <row r="30" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A30" s="45" t="s">
-        <v>40</v>
-      </c>
+      <c r="A30" s="95"/>
       <c r="B30" s="38"/>
-      <c r="C30" s="14" t="s">
-        <v>41</v>
+      <c r="C30" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="28"/>
@@ -5114,24 +6184,22 @@
       <c r="CA30" s="29"/>
       <c r="CB30" s="30"/>
     </row>
-    <row r="31" spans="1:110" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A31" s="45" t="s">
-        <v>40</v>
-      </c>
+    <row r="31" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A31" s="95"/>
       <c r="B31" s="38"/>
-      <c r="C31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="C31" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="29"/>
       <c r="J31" s="30"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
       <c r="P31" s="29"/>
@@ -5199,44 +6267,18 @@
       <c r="BZ31" s="31"/>
       <c r="CA31" s="29"/>
       <c r="CB31" s="30"/>
-      <c r="CC31" s="25"/>
-      <c r="CD31" s="25"/>
-      <c r="CE31" s="25"/>
-      <c r="CF31" s="25"/>
-      <c r="CG31" s="25"/>
-      <c r="CH31" s="25"/>
-      <c r="CI31" s="25"/>
-      <c r="CJ31" s="25"/>
-      <c r="CK31" s="25"/>
-      <c r="CL31" s="25"/>
-      <c r="CM31" s="25"/>
-      <c r="CN31" s="25"/>
-      <c r="CO31" s="25"/>
-      <c r="CP31" s="25"/>
-      <c r="CQ31" s="25"/>
-      <c r="CR31" s="25"/>
-      <c r="CS31" s="25"/>
-      <c r="CT31" s="25"/>
-      <c r="CU31" s="25"/>
-      <c r="CV31" s="25"/>
-      <c r="CW31" s="25"/>
-      <c r="CX31" s="25"/>
-      <c r="CY31" s="25"/>
-      <c r="CZ31" s="25"/>
-      <c r="DA31" s="25"/>
-      <c r="DB31" s="25"/>
-      <c r="DC31" s="25"/>
-      <c r="DD31" s="25"/>
-      <c r="DE31" s="25"/>
-      <c r="DF31" s="25"/>
     </row>
     <row r="32" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="96" t="s">
+        <v>37</v>
+      </c>
       <c r="B32" s="38"/>
-      <c r="C32" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="12"/>
+      <c r="C32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>46</v>
+      </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
@@ -5315,10 +6357,12 @@
       <c r="CB32" s="30"/>
     </row>
     <row r="33" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="96" t="s">
+        <v>38</v>
+      </c>
       <c r="B33" s="38"/>
-      <c r="C33" s="47" t="s">
-        <v>32</v>
+      <c r="C33" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="28"/>
@@ -5398,22 +6442,24 @@
       <c r="CA33" s="29"/>
       <c r="CB33" s="30"/>
     </row>
-    <row r="34" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:110" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A34" s="96" t="s">
+        <v>38</v>
+      </c>
       <c r="B34" s="38"/>
-      <c r="C34" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="C34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="29"/>
       <c r="J34" s="30"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
       <c r="P34" s="29"/>
@@ -5481,12 +6527,42 @@
       <c r="BZ34" s="31"/>
       <c r="CA34" s="29"/>
       <c r="CB34" s="30"/>
+      <c r="CC34" s="25"/>
+      <c r="CD34" s="25"/>
+      <c r="CE34" s="25"/>
+      <c r="CF34" s="25"/>
+      <c r="CG34" s="25"/>
+      <c r="CH34" s="25"/>
+      <c r="CI34" s="25"/>
+      <c r="CJ34" s="25"/>
+      <c r="CK34" s="25"/>
+      <c r="CL34" s="25"/>
+      <c r="CM34" s="25"/>
+      <c r="CN34" s="25"/>
+      <c r="CO34" s="25"/>
+      <c r="CP34" s="25"/>
+      <c r="CQ34" s="25"/>
+      <c r="CR34" s="25"/>
+      <c r="CS34" s="25"/>
+      <c r="CT34" s="25"/>
+      <c r="CU34" s="25"/>
+      <c r="CV34" s="25"/>
+      <c r="CW34" s="25"/>
+      <c r="CX34" s="25"/>
+      <c r="CY34" s="25"/>
+      <c r="CZ34" s="25"/>
+      <c r="DA34" s="25"/>
+      <c r="DB34" s="25"/>
+      <c r="DC34" s="25"/>
+      <c r="DD34" s="25"/>
+      <c r="DE34" s="25"/>
+      <c r="DF34" s="25"/>
     </row>
     <row r="35" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="38"/>
-      <c r="C35" s="15" t="s">
-        <v>30</v>
+      <c r="C35" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="28"/>
@@ -5567,10 +6643,10 @@
       <c r="CB35" s="30"/>
     </row>
     <row r="36" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="38"/>
-      <c r="C36" s="15" t="s">
-        <v>29</v>
+      <c r="C36" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="28"/>
@@ -5651,12 +6727,10 @@
       <c r="CB36" s="30"/>
     </row>
     <row r="37" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A37" s="45" t="s">
-        <v>46</v>
-      </c>
+      <c r="A37" s="95"/>
       <c r="B37" s="38"/>
-      <c r="C37" s="14" t="s">
-        <v>45</v>
+      <c r="C37" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="28"/>
@@ -5736,9 +6810,12 @@
       <c r="CA37" s="29"/>
       <c r="CB37" s="30"/>
     </row>
-    <row r="38" spans="1:110" ht="12" customHeight="1">
+    <row r="38" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A38" s="95"/>
       <c r="B38" s="38"/>
-      <c r="C38" s="16"/>
+      <c r="C38" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="D38" s="12"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -5816,72 +6893,44 @@
       <c r="BZ38" s="31"/>
       <c r="CA38" s="29"/>
       <c r="CB38" s="30"/>
-      <c r="CC38" s="25"/>
-      <c r="CD38" s="25"/>
-      <c r="CE38" s="25"/>
-      <c r="CF38" s="25"/>
-      <c r="CG38" s="25"/>
-      <c r="CH38" s="25"/>
-      <c r="CI38" s="25"/>
-      <c r="CJ38" s="25"/>
-      <c r="CK38" s="25"/>
-      <c r="CL38" s="25"/>
-      <c r="CM38" s="25"/>
-      <c r="CN38" s="25"/>
-      <c r="CO38" s="25"/>
-      <c r="CP38" s="25"/>
-      <c r="CQ38" s="25"/>
-      <c r="CR38" s="25"/>
-      <c r="CS38" s="25"/>
-      <c r="CT38" s="25"/>
-      <c r="CU38" s="25"/>
-      <c r="CV38" s="25"/>
-      <c r="CW38" s="25"/>
-      <c r="CX38" s="25"/>
-      <c r="CY38" s="25"/>
-      <c r="CZ38" s="25"/>
-      <c r="DA38" s="25"/>
-      <c r="DB38" s="25"/>
-      <c r="DC38" s="25"/>
-      <c r="DD38" s="25"/>
-      <c r="DE38" s="25"/>
-      <c r="DF38" s="25"/>
-    </row>
-    <row r="39" spans="1:110" ht="15" customHeight="1">
+    </row>
+    <row r="39" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A39" s="95"/>
       <c r="B39" s="38"/>
-      <c r="C39" s="19" t="s">
-        <v>35</v>
+      <c r="C39" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="29"/>
       <c r="J39" s="30"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="30"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="34"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="33"/>
       <c r="W39" s="29"/>
       <c r="X39" s="30"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="44"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
       <c r="AA39" s="28"/>
       <c r="AB39" s="28"/>
-      <c r="AC39" s="34"/>
+      <c r="AC39" s="33"/>
       <c r="AD39" s="29"/>
       <c r="AE39" s="30"/>
       <c r="AF39" s="28"/>
       <c r="AG39" s="28"/>
-      <c r="AH39" s="34"/>
+      <c r="AH39" s="33"/>
       <c r="AI39" s="28"/>
       <c r="AJ39" s="28"/>
       <c r="AK39" s="29"/>
@@ -5928,41 +6977,14 @@
       <c r="BZ39" s="31"/>
       <c r="CA39" s="29"/>
       <c r="CB39" s="30"/>
-      <c r="CC39" s="25"/>
-      <c r="CD39" s="25"/>
-      <c r="CE39" s="25"/>
-      <c r="CF39" s="25"/>
-      <c r="CG39" s="25"/>
-      <c r="CH39" s="25"/>
-      <c r="CI39" s="25"/>
-      <c r="CJ39" s="25"/>
-      <c r="CK39" s="25"/>
-      <c r="CL39" s="25"/>
-      <c r="CM39" s="25"/>
-      <c r="CN39" s="25"/>
-      <c r="CO39" s="25"/>
-      <c r="CP39" s="25"/>
-      <c r="CQ39" s="25"/>
-      <c r="CR39" s="25"/>
-      <c r="CS39" s="25"/>
-      <c r="CT39" s="25"/>
-      <c r="CU39" s="25"/>
-      <c r="CV39" s="25"/>
-      <c r="CW39" s="25"/>
-      <c r="CX39" s="25"/>
-      <c r="CY39" s="25"/>
-      <c r="CZ39" s="25"/>
-      <c r="DA39" s="25"/>
-      <c r="DB39" s="25"/>
-      <c r="DC39" s="25"/>
-      <c r="DD39" s="25"/>
-      <c r="DE39" s="25"/>
-      <c r="DF39" s="25"/>
-    </row>
-    <row r="40" spans="1:110" ht="15" customHeight="1">
+    </row>
+    <row r="40" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A40" s="96" t="s">
+        <v>44</v>
+      </c>
       <c r="B40" s="38"/>
-      <c r="C40" s="20" t="s">
-        <v>19</v>
+      <c r="C40" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="28"/>
@@ -5973,7 +6995,9 @@
       <c r="J40" s="30"/>
       <c r="K40" s="28"/>
       <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
+      <c r="M40" s="46" t="s">
+        <v>46</v>
+      </c>
       <c r="N40" s="28"/>
       <c r="O40" s="28"/>
       <c r="P40" s="29"/>
@@ -6041,40 +7065,11 @@
       <c r="BZ40" s="31"/>
       <c r="CA40" s="29"/>
       <c r="CB40" s="30"/>
-      <c r="CC40" s="25"/>
-      <c r="CD40" s="25"/>
-      <c r="CE40" s="25"/>
-      <c r="CF40" s="25"/>
-      <c r="CG40" s="25"/>
-      <c r="CH40" s="25"/>
-      <c r="CI40" s="25"/>
-      <c r="CJ40" s="25"/>
-      <c r="CK40" s="25"/>
-      <c r="CL40" s="25"/>
-      <c r="CM40" s="25"/>
-      <c r="CN40" s="25"/>
-      <c r="CO40" s="25"/>
-      <c r="CP40" s="25"/>
-      <c r="CQ40" s="25"/>
-      <c r="CR40" s="25"/>
-      <c r="CS40" s="25"/>
-      <c r="CT40" s="25"/>
-      <c r="CU40" s="25"/>
-      <c r="CV40" s="25"/>
-      <c r="CW40" s="25"/>
-      <c r="CX40" s="25"/>
-      <c r="CY40" s="25"/>
-      <c r="CZ40" s="25"/>
-      <c r="DA40" s="25"/>
-      <c r="DB40" s="25"/>
-      <c r="DC40" s="25"/>
-      <c r="DD40" s="25"/>
-      <c r="DE40" s="25"/>
-      <c r="DF40" s="25"/>
-    </row>
-    <row r="41" spans="1:110" ht="15" customHeight="1">
+    </row>
+    <row r="41" spans="1:110" ht="12" customHeight="1">
+      <c r="A41" s="95"/>
       <c r="B41" s="38"/>
-      <c r="C41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="12"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
@@ -6184,41 +7179,41 @@
       <c r="DF41" s="25"/>
     </row>
     <row r="42" spans="1:110" ht="15" customHeight="1">
+      <c r="A42" s="95"/>
       <c r="B42" s="38"/>
-      <c r="C42" s="20" t="s">
-        <v>20</v>
+      <c r="C42" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
       <c r="I42" s="29"/>
       <c r="J42" s="30"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
       <c r="P42" s="29"/>
       <c r="Q42" s="30"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="33"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="34"/>
       <c r="W42" s="29"/>
       <c r="X42" s="30"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="33"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="34"/>
       <c r="AD42" s="29"/>
       <c r="AE42" s="30"/>
       <c r="AF42" s="28"/>
       <c r="AG42" s="28"/>
-      <c r="AH42" s="33"/>
+      <c r="AH42" s="34"/>
       <c r="AI42" s="28"/>
       <c r="AJ42" s="28"/>
       <c r="AK42" s="29"/>
@@ -6297,8 +7292,13 @@
       <c r="DF42" s="25"/>
     </row>
     <row r="43" spans="1:110" ht="15" customHeight="1">
+      <c r="A43" s="95" t="s">
+        <v>259</v>
+      </c>
       <c r="B43" s="38"/>
-      <c r="C43" s="15"/>
+      <c r="C43" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="D43" s="12"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -6316,11 +7316,9 @@
       <c r="R43" s="28"/>
       <c r="S43" s="28"/>
       <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
       <c r="V43" s="33"/>
       <c r="W43" s="29"/>
       <c r="X43" s="30"/>
-      <c r="Y43" s="28"/>
       <c r="Z43" s="28"/>
       <c r="AA43" s="28"/>
       <c r="AB43" s="28"/>
@@ -6407,11 +7405,13 @@
       <c r="DE43" s="25"/>
       <c r="DF43" s="25"/>
     </row>
-    <row r="44" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="45"/>
+    <row r="44" spans="1:110" ht="15" customHeight="1">
+      <c r="A44" s="95" t="s">
+        <v>263</v>
+      </c>
       <c r="B44" s="38"/>
-      <c r="C44" s="20" t="s">
-        <v>21</v>
+      <c r="C44" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="28"/>
@@ -6430,11 +7430,11 @@
       <c r="R44" s="28"/>
       <c r="S44" s="28"/>
       <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
+      <c r="U44" s="91"/>
       <c r="V44" s="33"/>
       <c r="W44" s="29"/>
       <c r="X44" s="30"/>
-      <c r="Y44" s="28"/>
+      <c r="Y44" s="91"/>
       <c r="Z44" s="28"/>
       <c r="AA44" s="28"/>
       <c r="AB44" s="28"/>
@@ -6490,11 +7490,43 @@
       <c r="BZ44" s="31"/>
       <c r="CA44" s="29"/>
       <c r="CB44" s="30"/>
-    </row>
-    <row r="45" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="45"/>
+      <c r="CC44" s="25"/>
+      <c r="CD44" s="25"/>
+      <c r="CE44" s="25"/>
+      <c r="CF44" s="25"/>
+      <c r="CG44" s="25"/>
+      <c r="CH44" s="25"/>
+      <c r="CI44" s="25"/>
+      <c r="CJ44" s="25"/>
+      <c r="CK44" s="25"/>
+      <c r="CL44" s="25"/>
+      <c r="CM44" s="25"/>
+      <c r="CN44" s="25"/>
+      <c r="CO44" s="25"/>
+      <c r="CP44" s="25"/>
+      <c r="CQ44" s="25"/>
+      <c r="CR44" s="25"/>
+      <c r="CS44" s="25"/>
+      <c r="CT44" s="25"/>
+      <c r="CU44" s="25"/>
+      <c r="CV44" s="25"/>
+      <c r="CW44" s="25"/>
+      <c r="CX44" s="25"/>
+      <c r="CY44" s="25"/>
+      <c r="CZ44" s="25"/>
+      <c r="DA44" s="25"/>
+      <c r="DB44" s="25"/>
+      <c r="DC44" s="25"/>
+      <c r="DD44" s="25"/>
+      <c r="DE44" s="25"/>
+      <c r="DF44" s="25"/>
+    </row>
+    <row r="45" spans="1:110" ht="15" customHeight="1">
+      <c r="A45" s="95"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="20"/>
+      <c r="C45" s="15" t="s">
+        <v>258</v>
+      </c>
       <c r="D45" s="12"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -6512,11 +7544,11 @@
       <c r="R45" s="28"/>
       <c r="S45" s="28"/>
       <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
+      <c r="U45" s="91"/>
       <c r="V45" s="33"/>
       <c r="W45" s="29"/>
       <c r="X45" s="30"/>
-      <c r="Y45" s="28"/>
+      <c r="Y45" s="91"/>
       <c r="Z45" s="28"/>
       <c r="AA45" s="28"/>
       <c r="AB45" s="28"/>
@@ -6572,10 +7604,43 @@
       <c r="BZ45" s="31"/>
       <c r="CA45" s="29"/>
       <c r="CB45" s="30"/>
-    </row>
-    <row r="46" spans="1:110" ht="12" customHeight="1">
+      <c r="CC45" s="25"/>
+      <c r="CD45" s="25"/>
+      <c r="CE45" s="25"/>
+      <c r="CF45" s="25"/>
+      <c r="CG45" s="25"/>
+      <c r="CH45" s="25"/>
+      <c r="CI45" s="25"/>
+      <c r="CJ45" s="25"/>
+      <c r="CK45" s="25"/>
+      <c r="CL45" s="25"/>
+      <c r="CM45" s="25"/>
+      <c r="CN45" s="25"/>
+      <c r="CO45" s="25"/>
+      <c r="CP45" s="25"/>
+      <c r="CQ45" s="25"/>
+      <c r="CR45" s="25"/>
+      <c r="CS45" s="25"/>
+      <c r="CT45" s="25"/>
+      <c r="CU45" s="25"/>
+      <c r="CV45" s="25"/>
+      <c r="CW45" s="25"/>
+      <c r="CX45" s="25"/>
+      <c r="CY45" s="25"/>
+      <c r="CZ45" s="25"/>
+      <c r="DA45" s="25"/>
+      <c r="DB45" s="25"/>
+      <c r="DC45" s="25"/>
+      <c r="DD45" s="25"/>
+      <c r="DE45" s="25"/>
+      <c r="DF45" s="25"/>
+    </row>
+    <row r="46" spans="1:110" ht="15" customHeight="1">
+      <c r="A46" s="95"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="16"/>
+      <c r="C46" s="15" t="s">
+        <v>253</v>
+      </c>
       <c r="D46" s="12"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
@@ -6592,14 +7657,16 @@
       <c r="Q46" s="30"/>
       <c r="R46" s="28"/>
       <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
+      <c r="T46" s="91" t="s">
+        <v>245</v>
+      </c>
       <c r="U46" s="28"/>
       <c r="V46" s="33"/>
       <c r="W46" s="29"/>
       <c r="X46" s="30"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
+      <c r="Y46" s="91"/>
+      <c r="Z46" s="91"/>
+      <c r="AA46" s="91"/>
       <c r="AB46" s="28"/>
       <c r="AC46" s="33"/>
       <c r="AD46" s="29"/>
@@ -6684,11 +7751,9 @@
       <c r="DE46" s="25"/>
       <c r="DF46" s="25"/>
     </row>
-    <row r="47" spans="1:110" ht="15" customHeight="1">
+    <row r="47" spans="1:110" s="86" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="95"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="D47" s="12"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -6710,24 +7775,24 @@
       <c r="V47" s="33"/>
       <c r="W47" s="29"/>
       <c r="X47" s="30"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
       <c r="AC47" s="33"/>
       <c r="AD47" s="29"/>
       <c r="AE47" s="30"/>
-      <c r="AF47" s="40"/>
-      <c r="AG47" s="40"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
       <c r="AH47" s="33"/>
-      <c r="AI47" s="40"/>
-      <c r="AJ47" s="40"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
       <c r="AK47" s="29"/>
       <c r="AL47" s="30"/>
-      <c r="AM47" s="40"/>
-      <c r="AN47" s="40"/>
-      <c r="AO47" s="40"/>
-      <c r="AP47" s="40"/>
+      <c r="AM47" s="28"/>
+      <c r="AN47" s="28"/>
+      <c r="AO47" s="28"/>
+      <c r="AP47" s="28"/>
       <c r="AQ47" s="28"/>
       <c r="AR47" s="29"/>
       <c r="AS47" s="30"/>
@@ -6766,40 +7831,13 @@
       <c r="BZ47" s="31"/>
       <c r="CA47" s="29"/>
       <c r="CB47" s="30"/>
-      <c r="CC47" s="25"/>
-      <c r="CD47" s="25"/>
-      <c r="CE47" s="25"/>
-      <c r="CF47" s="25"/>
-      <c r="CG47" s="25"/>
-      <c r="CH47" s="25"/>
-      <c r="CI47" s="25"/>
-      <c r="CJ47" s="25"/>
-      <c r="CK47" s="25"/>
-      <c r="CL47" s="25"/>
-      <c r="CM47" s="25"/>
-      <c r="CN47" s="25"/>
-      <c r="CO47" s="25"/>
-      <c r="CP47" s="25"/>
-      <c r="CQ47" s="25"/>
-      <c r="CR47" s="25"/>
-      <c r="CS47" s="25"/>
-      <c r="CT47" s="25"/>
-      <c r="CU47" s="25"/>
-      <c r="CV47" s="25"/>
-      <c r="CW47" s="25"/>
-      <c r="CX47" s="25"/>
-      <c r="CY47" s="25"/>
-      <c r="CZ47" s="25"/>
-      <c r="DA47" s="25"/>
-      <c r="DB47" s="25"/>
-      <c r="DC47" s="25"/>
-      <c r="DD47" s="25"/>
-      <c r="DE47" s="25"/>
-      <c r="DF47" s="25"/>
-    </row>
-    <row r="48" spans="1:110" ht="15" customHeight="1">
+    </row>
+    <row r="48" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="95"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="21"/>
+      <c r="C48" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="D48" s="12"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
@@ -6877,41 +7915,15 @@
       <c r="BZ48" s="31"/>
       <c r="CA48" s="29"/>
       <c r="CB48" s="30"/>
-      <c r="CC48" s="25"/>
-      <c r="CD48" s="25"/>
-      <c r="CE48" s="25"/>
-      <c r="CF48" s="25"/>
-      <c r="CG48" s="25"/>
-      <c r="CH48" s="25"/>
-      <c r="CI48" s="25"/>
-      <c r="CJ48" s="25"/>
-      <c r="CK48" s="25"/>
-      <c r="CL48" s="25"/>
-      <c r="CM48" s="25"/>
-      <c r="CN48" s="25"/>
-      <c r="CO48" s="25"/>
-      <c r="CP48" s="25"/>
-      <c r="CQ48" s="25"/>
-      <c r="CR48" s="25"/>
-      <c r="CS48" s="25"/>
-      <c r="CT48" s="25"/>
-      <c r="CU48" s="25"/>
-      <c r="CV48" s="25"/>
-      <c r="CW48" s="25"/>
-      <c r="CX48" s="25"/>
-      <c r="CY48" s="25"/>
-      <c r="CZ48" s="25"/>
-      <c r="DA48" s="25"/>
-      <c r="DB48" s="25"/>
-      <c r="DC48" s="25"/>
-      <c r="DD48" s="25"/>
-      <c r="DE48" s="25"/>
-      <c r="DF48" s="25"/>
-    </row>
-    <row r="49" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="45"/>
+    </row>
+    <row r="49" spans="1:110" s="86" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="95" t="s">
+        <v>260</v>
+      </c>
       <c r="B49" s="38"/>
-      <c r="C49" s="15"/>
+      <c r="C49" s="45" t="s">
+        <v>254</v>
+      </c>
       <c r="D49" s="12"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
@@ -6929,7 +7941,7 @@
       <c r="R49" s="28"/>
       <c r="S49" s="28"/>
       <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
+      <c r="U49" s="91"/>
       <c r="V49" s="33"/>
       <c r="W49" s="29"/>
       <c r="X49" s="30"/>
@@ -6990,10 +8002,13 @@
       <c r="CA49" s="29"/>
       <c r="CB49" s="30"/>
     </row>
-    <row r="50" spans="1:110">
+    <row r="50" spans="1:110" s="86" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="95" t="s">
+        <v>37</v>
+      </c>
       <c r="B50" s="38"/>
-      <c r="C50" s="18" t="s">
-        <v>26</v>
+      <c r="C50" s="45" t="s">
+        <v>265</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="28"/>
@@ -7072,39 +8087,13 @@
       <c r="BZ50" s="31"/>
       <c r="CA50" s="29"/>
       <c r="CB50" s="30"/>
-      <c r="CC50" s="25"/>
-      <c r="CD50" s="25"/>
-      <c r="CE50" s="25"/>
-      <c r="CF50" s="25"/>
-      <c r="CG50" s="25"/>
-      <c r="CH50" s="25"/>
-      <c r="CI50" s="25"/>
-      <c r="CJ50" s="25"/>
-      <c r="CK50" s="25"/>
-      <c r="CL50" s="25"/>
-      <c r="CM50" s="25"/>
-      <c r="CN50" s="25"/>
-      <c r="CO50" s="25"/>
-      <c r="CP50" s="25"/>
-      <c r="CQ50" s="25"/>
-      <c r="CR50" s="25"/>
-      <c r="CS50" s="25"/>
-      <c r="CT50" s="25"/>
-      <c r="CU50" s="25"/>
-      <c r="CV50" s="25"/>
-      <c r="CW50" s="25"/>
-      <c r="CX50" s="25"/>
-      <c r="CY50" s="25"/>
-      <c r="CZ50" s="25"/>
-      <c r="DA50" s="25"/>
-      <c r="DB50" s="25"/>
-      <c r="DC50" s="25"/>
-      <c r="DD50" s="25"/>
-      <c r="DE50" s="25"/>
-      <c r="DF50" s="25"/>
-    </row>
-    <row r="51" spans="1:110" ht="15" customHeight="1">
+    </row>
+    <row r="51" spans="1:110" s="86" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="95"/>
       <c r="B51" s="38"/>
+      <c r="C51" s="45" t="s">
+        <v>266</v>
+      </c>
       <c r="D51" s="12"/>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -7182,43 +8171,11 @@
       <c r="BZ51" s="31"/>
       <c r="CA51" s="29"/>
       <c r="CB51" s="30"/>
-      <c r="CC51" s="25"/>
-      <c r="CD51" s="25"/>
-      <c r="CE51" s="25"/>
-      <c r="CF51" s="25"/>
-      <c r="CG51" s="25"/>
-      <c r="CH51" s="25"/>
-      <c r="CI51" s="25"/>
-      <c r="CJ51" s="25"/>
-      <c r="CK51" s="25"/>
-      <c r="CL51" s="25"/>
-      <c r="CM51" s="25"/>
-      <c r="CN51" s="25"/>
-      <c r="CO51" s="25"/>
-      <c r="CP51" s="25"/>
-      <c r="CQ51" s="25"/>
-      <c r="CR51" s="25"/>
-      <c r="CS51" s="25"/>
-      <c r="CT51" s="25"/>
-      <c r="CU51" s="25"/>
-      <c r="CV51" s="25"/>
-      <c r="CW51" s="25"/>
-      <c r="CX51" s="25"/>
-      <c r="CY51" s="25"/>
-      <c r="CZ51" s="25"/>
-      <c r="DA51" s="25"/>
-      <c r="DB51" s="25"/>
-      <c r="DC51" s="25"/>
-      <c r="DD51" s="25"/>
-      <c r="DE51" s="25"/>
-      <c r="DF51" s="25"/>
-    </row>
-    <row r="52" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A52" s="45"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="32" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="52" spans="1:110" s="86" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="95"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="12"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
@@ -7298,9 +8255,11 @@
       <c r="CB52" s="30"/>
     </row>
     <row r="53" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="45"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="15"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="45" t="s">
+        <v>248</v>
+      </c>
       <c r="D53" s="12"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
@@ -7379,10 +8338,12 @@
       <c r="CA53" s="29"/>
       <c r="CB53" s="30"/>
     </row>
-    <row r="54" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="45"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="15"/>
+    <row r="54" spans="1:110">
+      <c r="A54" s="95"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="20" t="s">
+        <v>201</v>
+      </c>
       <c r="D54" s="12"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
@@ -7399,7 +8360,9 @@
       <c r="Q54" s="30"/>
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
+      <c r="T54" s="91" t="s">
+        <v>46</v>
+      </c>
       <c r="U54" s="28"/>
       <c r="V54" s="33"/>
       <c r="W54" s="29"/>
@@ -7418,11 +8381,6 @@
       <c r="AJ54" s="28"/>
       <c r="AK54" s="29"/>
       <c r="AL54" s="30"/>
-      <c r="AM54" s="28"/>
-      <c r="AN54" s="28"/>
-      <c r="AO54" s="28"/>
-      <c r="AP54" s="28"/>
-      <c r="AQ54" s="28"/>
       <c r="AR54" s="29"/>
       <c r="AS54" s="30"/>
       <c r="AT54" s="28"/>
@@ -7460,10 +8418,40 @@
       <c r="BZ54" s="31"/>
       <c r="CA54" s="29"/>
       <c r="CB54" s="30"/>
-    </row>
-    <row r="55" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="45"/>
-      <c r="B55" s="49"/>
+      <c r="CC54" s="25"/>
+      <c r="CD54" s="25"/>
+      <c r="CE54" s="25"/>
+      <c r="CF54" s="25"/>
+      <c r="CG54" s="25"/>
+      <c r="CH54" s="25"/>
+      <c r="CI54" s="25"/>
+      <c r="CJ54" s="25"/>
+      <c r="CK54" s="25"/>
+      <c r="CL54" s="25"/>
+      <c r="CM54" s="25"/>
+      <c r="CN54" s="25"/>
+      <c r="CO54" s="25"/>
+      <c r="CP54" s="25"/>
+      <c r="CQ54" s="25"/>
+      <c r="CR54" s="25"/>
+      <c r="CS54" s="25"/>
+      <c r="CT54" s="25"/>
+      <c r="CU54" s="25"/>
+      <c r="CV54" s="25"/>
+      <c r="CW54" s="25"/>
+      <c r="CX54" s="25"/>
+      <c r="CY54" s="25"/>
+      <c r="CZ54" s="25"/>
+      <c r="DA54" s="25"/>
+      <c r="DB54" s="25"/>
+      <c r="DC54" s="25"/>
+      <c r="DD54" s="25"/>
+      <c r="DE54" s="25"/>
+      <c r="DF54" s="25"/>
+    </row>
+    <row r="55" spans="1:110" ht="15" customHeight="1">
+      <c r="A55" s="95"/>
+      <c r="B55" s="38"/>
       <c r="D55" s="12"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -7541,11 +8529,45 @@
       <c r="BZ55" s="31"/>
       <c r="CA55" s="29"/>
       <c r="CB55" s="30"/>
-    </row>
-    <row r="56" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="45"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="15"/>
+      <c r="CC55" s="25"/>
+      <c r="CD55" s="25"/>
+      <c r="CE55" s="25"/>
+      <c r="CF55" s="25"/>
+      <c r="CG55" s="25"/>
+      <c r="CH55" s="25"/>
+      <c r="CI55" s="25"/>
+      <c r="CJ55" s="25"/>
+      <c r="CK55" s="25"/>
+      <c r="CL55" s="25"/>
+      <c r="CM55" s="25"/>
+      <c r="CN55" s="25"/>
+      <c r="CO55" s="25"/>
+      <c r="CP55" s="25"/>
+      <c r="CQ55" s="25"/>
+      <c r="CR55" s="25"/>
+      <c r="CS55" s="25"/>
+      <c r="CT55" s="25"/>
+      <c r="CU55" s="25"/>
+      <c r="CV55" s="25"/>
+      <c r="CW55" s="25"/>
+      <c r="CX55" s="25"/>
+      <c r="CY55" s="25"/>
+      <c r="CZ55" s="25"/>
+      <c r="DA55" s="25"/>
+      <c r="DB55" s="25"/>
+      <c r="DC55" s="25"/>
+      <c r="DD55" s="25"/>
+      <c r="DE55" s="25"/>
+      <c r="DF55" s="25"/>
+    </row>
+    <row r="56" spans="1:110" ht="15" customHeight="1">
+      <c r="A56" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" s="38"/>
+      <c r="C56" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="D56" s="12"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
@@ -7563,19 +8585,19 @@
       <c r="R56" s="28"/>
       <c r="S56" s="28"/>
       <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
+      <c r="U56" s="40"/>
       <c r="V56" s="33"/>
       <c r="W56" s="29"/>
       <c r="X56" s="30"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
+      <c r="AB56" s="40"/>
       <c r="AC56" s="33"/>
       <c r="AD56" s="29"/>
       <c r="AE56" s="30"/>
-      <c r="AF56" s="28"/>
-      <c r="AG56" s="28"/>
+      <c r="AF56" s="40"/>
+      <c r="AG56" s="40"/>
       <c r="AH56" s="33"/>
       <c r="AI56" s="28"/>
       <c r="AJ56" s="28"/>
@@ -7623,11 +8645,45 @@
       <c r="BZ56" s="31"/>
       <c r="CA56" s="29"/>
       <c r="CB56" s="30"/>
+      <c r="CC56" s="25"/>
+      <c r="CD56" s="25"/>
+      <c r="CE56" s="25"/>
+      <c r="CF56" s="25"/>
+      <c r="CG56" s="25"/>
+      <c r="CH56" s="25"/>
+      <c r="CI56" s="25"/>
+      <c r="CJ56" s="25"/>
+      <c r="CK56" s="25"/>
+      <c r="CL56" s="25"/>
+      <c r="CM56" s="25"/>
+      <c r="CN56" s="25"/>
+      <c r="CO56" s="25"/>
+      <c r="CP56" s="25"/>
+      <c r="CQ56" s="25"/>
+      <c r="CR56" s="25"/>
+      <c r="CS56" s="25"/>
+      <c r="CT56" s="25"/>
+      <c r="CU56" s="25"/>
+      <c r="CV56" s="25"/>
+      <c r="CW56" s="25"/>
+      <c r="CX56" s="25"/>
+      <c r="CY56" s="25"/>
+      <c r="CZ56" s="25"/>
+      <c r="DA56" s="25"/>
+      <c r="DB56" s="25"/>
+      <c r="DC56" s="25"/>
+      <c r="DD56" s="25"/>
+      <c r="DE56" s="25"/>
+      <c r="DF56" s="25"/>
     </row>
     <row r="57" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="45"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="15"/>
+      <c r="A57" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="38"/>
+      <c r="C57" s="21" t="s">
+        <v>255</v>
+      </c>
       <c r="D57" s="12"/>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
@@ -7706,10 +8762,9 @@
       <c r="CA57" s="29"/>
       <c r="CB57" s="30"/>
     </row>
-    <row r="58" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="45"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="15"/>
+    <row r="58" spans="1:110">
+      <c r="A58" s="95"/>
+      <c r="B58" s="38"/>
       <c r="D58" s="12"/>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
@@ -7787,11 +8842,40 @@
       <c r="BZ58" s="31"/>
       <c r="CA58" s="29"/>
       <c r="CB58" s="30"/>
-    </row>
-    <row r="59" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="45"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="15"/>
+      <c r="CC58" s="25"/>
+      <c r="CD58" s="25"/>
+      <c r="CE58" s="25"/>
+      <c r="CF58" s="25"/>
+      <c r="CG58" s="25"/>
+      <c r="CH58" s="25"/>
+      <c r="CI58" s="25"/>
+      <c r="CJ58" s="25"/>
+      <c r="CK58" s="25"/>
+      <c r="CL58" s="25"/>
+      <c r="CM58" s="25"/>
+      <c r="CN58" s="25"/>
+      <c r="CO58" s="25"/>
+      <c r="CP58" s="25"/>
+      <c r="CQ58" s="25"/>
+      <c r="CR58" s="25"/>
+      <c r="CS58" s="25"/>
+      <c r="CT58" s="25"/>
+      <c r="CU58" s="25"/>
+      <c r="CV58" s="25"/>
+      <c r="CW58" s="25"/>
+      <c r="CX58" s="25"/>
+      <c r="CY58" s="25"/>
+      <c r="CZ58" s="25"/>
+      <c r="DA58" s="25"/>
+      <c r="DB58" s="25"/>
+      <c r="DC58" s="25"/>
+      <c r="DD58" s="25"/>
+      <c r="DE58" s="25"/>
+      <c r="DF58" s="25"/>
+    </row>
+    <row r="59" spans="1:110" ht="15" customHeight="1">
+      <c r="A59" s="95"/>
+      <c r="B59" s="38"/>
       <c r="D59" s="12"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -7869,11 +8953,40 @@
       <c r="BZ59" s="31"/>
       <c r="CA59" s="29"/>
       <c r="CB59" s="30"/>
-    </row>
-    <row r="60" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="45"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="15"/>
+      <c r="CC59" s="25"/>
+      <c r="CD59" s="25"/>
+      <c r="CE59" s="25"/>
+      <c r="CF59" s="25"/>
+      <c r="CG59" s="25"/>
+      <c r="CH59" s="25"/>
+      <c r="CI59" s="25"/>
+      <c r="CJ59" s="25"/>
+      <c r="CK59" s="25"/>
+      <c r="CL59" s="25"/>
+      <c r="CM59" s="25"/>
+      <c r="CN59" s="25"/>
+      <c r="CO59" s="25"/>
+      <c r="CP59" s="25"/>
+      <c r="CQ59" s="25"/>
+      <c r="CR59" s="25"/>
+      <c r="CS59" s="25"/>
+      <c r="CT59" s="25"/>
+      <c r="CU59" s="25"/>
+      <c r="CV59" s="25"/>
+      <c r="CW59" s="25"/>
+      <c r="CX59" s="25"/>
+      <c r="CY59" s="25"/>
+      <c r="CZ59" s="25"/>
+      <c r="DA59" s="25"/>
+      <c r="DB59" s="25"/>
+      <c r="DC59" s="25"/>
+      <c r="DD59" s="25"/>
+      <c r="DE59" s="25"/>
+      <c r="DF59" s="25"/>
+    </row>
+    <row r="60" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A60" s="95"/>
+      <c r="B60" s="39"/>
       <c r="D60" s="12"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -7953,9 +9066,11 @@
       <c r="CB60" s="30"/>
     </row>
     <row r="61" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="45"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="15"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="18" t="s">
+        <v>251</v>
+      </c>
       <c r="D61" s="12"/>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
@@ -8035,9 +9150,13 @@
       <c r="CB61" s="30"/>
     </row>
     <row r="62" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="45"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="15"/>
+      <c r="A62" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="B62" s="79"/>
+      <c r="C62" s="93" t="s">
+        <v>256</v>
+      </c>
       <c r="D62" s="12"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -8055,7 +9174,7 @@
       <c r="R62" s="28"/>
       <c r="S62" s="28"/>
       <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
+      <c r="U62" s="94"/>
       <c r="V62" s="33"/>
       <c r="W62" s="29"/>
       <c r="X62" s="30"/>
@@ -8117,9 +9236,8 @@
       <c r="CB62" s="30"/>
     </row>
     <row r="63" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="45"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="15"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="79"/>
       <c r="D63" s="12"/>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
@@ -8199,8 +9317,8 @@
       <c r="CB63" s="30"/>
     </row>
     <row r="64" spans="1:110" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="45"/>
-      <c r="B64" s="49"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="79"/>
       <c r="C64" s="15"/>
       <c r="D64" s="12"/>
       <c r="E64" s="28"/>
@@ -8281,8 +9399,8 @@
       <c r="CB64" s="30"/>
     </row>
     <row r="65" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="45"/>
-      <c r="B65" s="49"/>
+      <c r="A65" s="95"/>
+      <c r="B65" s="79"/>
       <c r="C65" s="15"/>
       <c r="D65" s="12"/>
       <c r="E65" s="28"/>
@@ -8363,8 +9481,8 @@
       <c r="CB65" s="30"/>
     </row>
     <row r="66" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="45"/>
-      <c r="B66" s="49"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="79"/>
       <c r="C66" s="15"/>
       <c r="D66" s="12"/>
       <c r="E66" s="28"/>
@@ -8445,8 +9563,8 @@
       <c r="CB66" s="30"/>
     </row>
     <row r="67" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="45"/>
-      <c r="B67" s="49"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="79"/>
       <c r="C67" s="15"/>
       <c r="D67" s="12"/>
       <c r="E67" s="28"/>
@@ -8527,8 +9645,8 @@
       <c r="CB67" s="30"/>
     </row>
     <row r="68" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="45"/>
-      <c r="B68" s="49"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="79"/>
       <c r="C68" s="15"/>
       <c r="D68" s="12"/>
       <c r="E68" s="28"/>
@@ -8609,8 +9727,8 @@
       <c r="CB68" s="30"/>
     </row>
     <row r="69" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A69" s="45"/>
-      <c r="B69" s="49"/>
+      <c r="A69" s="95"/>
+      <c r="B69" s="79"/>
       <c r="C69" s="15"/>
       <c r="D69" s="12"/>
       <c r="E69" s="28"/>
@@ -8691,9 +9809,11 @@
       <c r="CB69" s="30"/>
     </row>
     <row r="70" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="45"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="15"/>
+      <c r="A70" s="95"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="32" t="s">
+        <v>249</v>
+      </c>
       <c r="D70" s="12"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
@@ -8773,9 +9893,9 @@
       <c r="CB70" s="30"/>
     </row>
     <row r="71" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A71" s="45"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="15"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="79"/>
+      <c r="C71"/>
       <c r="D71" s="12"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -8855,9 +9975,8 @@
       <c r="CB71" s="30"/>
     </row>
     <row r="72" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="45"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="15"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="79"/>
       <c r="D72" s="12"/>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
@@ -8937,8 +10056,8 @@
       <c r="CB72" s="30"/>
     </row>
     <row r="73" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A73" s="45"/>
-      <c r="B73" s="49"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="79"/>
       <c r="C73" s="15"/>
       <c r="D73" s="12"/>
       <c r="E73" s="28"/>
@@ -9018,98 +10137,761 @@
       <c r="CA73" s="29"/>
       <c r="CB73" s="30"/>
     </row>
-    <row r="74" spans="1:80" ht="15" customHeight="1">
-      <c r="B74" s="49"/>
-      <c r="C74" s="8"/>
-      <c r="BA74" s="25"/>
-      <c r="BB74" s="25"/>
-      <c r="BC74" s="25"/>
-      <c r="BD74" s="25"/>
-      <c r="BE74" s="25"/>
-    </row>
-    <row r="75" spans="1:80">
-      <c r="B75" s="49"/>
-      <c r="BA75" s="25"/>
-      <c r="BB75" s="25"/>
-      <c r="BC75" s="25"/>
-      <c r="BD75" s="25"/>
-      <c r="BE75" s="25"/>
-    </row>
-    <row r="76" spans="1:80">
-      <c r="B76" s="49"/>
-      <c r="BA76" s="25"/>
-      <c r="BB76" s="25"/>
-      <c r="BC76" s="25"/>
-      <c r="BD76" s="25"/>
-      <c r="BE76" s="25"/>
-    </row>
-    <row r="77" spans="1:80">
-      <c r="B77" s="49"/>
-      <c r="BA77" s="25"/>
-      <c r="BB77" s="25"/>
-      <c r="BC77" s="25"/>
-      <c r="BD77" s="25"/>
-      <c r="BE77" s="25"/>
-    </row>
-    <row r="78" spans="1:80">
-      <c r="B78" s="49"/>
-      <c r="BA78" s="25"/>
-      <c r="BB78" s="25"/>
-      <c r="BC78" s="25"/>
-      <c r="BD78" s="25"/>
-      <c r="BE78" s="25"/>
-    </row>
-    <row r="79" spans="1:80">
-      <c r="B79" s="49"/>
-      <c r="BA79" s="25"/>
-      <c r="BB79" s="25"/>
-      <c r="BC79" s="25"/>
-      <c r="BD79" s="25"/>
-      <c r="BE79" s="25"/>
-    </row>
-    <row r="80" spans="1:80">
-      <c r="B80" s="49"/>
-      <c r="BA80" s="25"/>
-      <c r="BB80" s="25"/>
-      <c r="BC80" s="25"/>
-      <c r="BD80" s="25"/>
-      <c r="BE80" s="25"/>
-    </row>
-    <row r="81" spans="2:57">
-      <c r="B81" s="49"/>
-      <c r="BA81" s="25"/>
-      <c r="BB81" s="25"/>
-      <c r="BC81" s="25"/>
-      <c r="BD81" s="25"/>
-      <c r="BE81" s="25"/>
-    </row>
-    <row r="82" spans="2:57">
-      <c r="B82" s="49"/>
+    <row r="74" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="95"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="33"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="28"/>
+      <c r="AC74" s="33"/>
+      <c r="AD74" s="29"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="28"/>
+      <c r="AG74" s="28"/>
+      <c r="AH74" s="33"/>
+      <c r="AI74" s="28"/>
+      <c r="AJ74" s="28"/>
+      <c r="AK74" s="29"/>
+      <c r="AL74" s="30"/>
+      <c r="AM74" s="28"/>
+      <c r="AN74" s="28"/>
+      <c r="AO74" s="28"/>
+      <c r="AP74" s="28"/>
+      <c r="AQ74" s="28"/>
+      <c r="AR74" s="29"/>
+      <c r="AS74" s="30"/>
+      <c r="AT74" s="28"/>
+      <c r="AU74" s="28"/>
+      <c r="AV74" s="28"/>
+      <c r="AW74" s="28"/>
+      <c r="AX74" s="28"/>
+      <c r="AY74" s="29"/>
+      <c r="AZ74" s="30"/>
+      <c r="BA74" s="28"/>
+      <c r="BB74" s="28"/>
+      <c r="BC74" s="28"/>
+      <c r="BD74" s="28"/>
+      <c r="BE74" s="28"/>
+      <c r="BF74" s="29"/>
+      <c r="BG74" s="30"/>
+      <c r="BH74" s="31"/>
+      <c r="BI74" s="28"/>
+      <c r="BJ74" s="28"/>
+      <c r="BK74" s="28"/>
+      <c r="BL74" s="28"/>
+      <c r="BM74" s="29"/>
+      <c r="BN74" s="30"/>
+      <c r="BO74" s="28"/>
+      <c r="BP74" s="28"/>
+      <c r="BQ74" s="28"/>
+      <c r="BR74" s="28"/>
+      <c r="BS74" s="28"/>
+      <c r="BT74" s="29"/>
+      <c r="BU74" s="31"/>
+      <c r="BV74" s="28"/>
+      <c r="BW74" s="28"/>
+      <c r="BX74" s="28"/>
+      <c r="BY74" s="28"/>
+      <c r="BZ74" s="31"/>
+      <c r="CA74" s="29"/>
+      <c r="CB74" s="30"/>
+    </row>
+    <row r="75" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A75" s="95"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="30"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="33"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="33"/>
+      <c r="AD75" s="29"/>
+      <c r="AE75" s="30"/>
+      <c r="AF75" s="28"/>
+      <c r="AG75" s="28"/>
+      <c r="AH75" s="33"/>
+      <c r="AI75" s="28"/>
+      <c r="AJ75" s="28"/>
+      <c r="AK75" s="29"/>
+      <c r="AL75" s="30"/>
+      <c r="AM75" s="28"/>
+      <c r="AN75" s="28"/>
+      <c r="AO75" s="28"/>
+      <c r="AP75" s="28"/>
+      <c r="AQ75" s="28"/>
+      <c r="AR75" s="29"/>
+      <c r="AS75" s="30"/>
+      <c r="AT75" s="28"/>
+      <c r="AU75" s="28"/>
+      <c r="AV75" s="28"/>
+      <c r="AW75" s="28"/>
+      <c r="AX75" s="28"/>
+      <c r="AY75" s="29"/>
+      <c r="AZ75" s="30"/>
+      <c r="BA75" s="28"/>
+      <c r="BB75" s="28"/>
+      <c r="BC75" s="28"/>
+      <c r="BD75" s="28"/>
+      <c r="BE75" s="28"/>
+      <c r="BF75" s="29"/>
+      <c r="BG75" s="30"/>
+      <c r="BH75" s="31"/>
+      <c r="BI75" s="28"/>
+      <c r="BJ75" s="28"/>
+      <c r="BK75" s="28"/>
+      <c r="BL75" s="28"/>
+      <c r="BM75" s="29"/>
+      <c r="BN75" s="30"/>
+      <c r="BO75" s="28"/>
+      <c r="BP75" s="28"/>
+      <c r="BQ75" s="28"/>
+      <c r="BR75" s="28"/>
+      <c r="BS75" s="28"/>
+      <c r="BT75" s="29"/>
+      <c r="BU75" s="31"/>
+      <c r="BV75" s="28"/>
+      <c r="BW75" s="28"/>
+      <c r="BX75" s="28"/>
+      <c r="BY75" s="28"/>
+      <c r="BZ75" s="31"/>
+      <c r="CA75" s="29"/>
+      <c r="CB75" s="30"/>
+    </row>
+    <row r="76" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="95"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="28"/>
+      <c r="AC76" s="33"/>
+      <c r="AD76" s="29"/>
+      <c r="AE76" s="30"/>
+      <c r="AF76" s="28"/>
+      <c r="AG76" s="28"/>
+      <c r="AH76" s="33"/>
+      <c r="AI76" s="28"/>
+      <c r="AJ76" s="28"/>
+      <c r="AK76" s="29"/>
+      <c r="AL76" s="30"/>
+      <c r="AM76" s="28"/>
+      <c r="AN76" s="28"/>
+      <c r="AO76" s="28"/>
+      <c r="AP76" s="28"/>
+      <c r="AQ76" s="28"/>
+      <c r="AR76" s="29"/>
+      <c r="AS76" s="30"/>
+      <c r="AT76" s="28"/>
+      <c r="AU76" s="28"/>
+      <c r="AV76" s="28"/>
+      <c r="AW76" s="28"/>
+      <c r="AX76" s="28"/>
+      <c r="AY76" s="29"/>
+      <c r="AZ76" s="30"/>
+      <c r="BA76" s="28"/>
+      <c r="BB76" s="28"/>
+      <c r="BC76" s="28"/>
+      <c r="BD76" s="28"/>
+      <c r="BE76" s="28"/>
+      <c r="BF76" s="29"/>
+      <c r="BG76" s="30"/>
+      <c r="BH76" s="31"/>
+      <c r="BI76" s="28"/>
+      <c r="BJ76" s="28"/>
+      <c r="BK76" s="28"/>
+      <c r="BL76" s="28"/>
+      <c r="BM76" s="29"/>
+      <c r="BN76" s="30"/>
+      <c r="BO76" s="28"/>
+      <c r="BP76" s="28"/>
+      <c r="BQ76" s="28"/>
+      <c r="BR76" s="28"/>
+      <c r="BS76" s="28"/>
+      <c r="BT76" s="29"/>
+      <c r="BU76" s="31"/>
+      <c r="BV76" s="28"/>
+      <c r="BW76" s="28"/>
+      <c r="BX76" s="28"/>
+      <c r="BY76" s="28"/>
+      <c r="BZ76" s="31"/>
+      <c r="CA76" s="29"/>
+      <c r="CB76" s="30"/>
+    </row>
+    <row r="77" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="95"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="28"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="33"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
+      <c r="AB77" s="28"/>
+      <c r="AC77" s="33"/>
+      <c r="AD77" s="29"/>
+      <c r="AE77" s="30"/>
+      <c r="AF77" s="28"/>
+      <c r="AG77" s="28"/>
+      <c r="AH77" s="33"/>
+      <c r="AI77" s="28"/>
+      <c r="AJ77" s="28"/>
+      <c r="AK77" s="29"/>
+      <c r="AL77" s="30"/>
+      <c r="AM77" s="28"/>
+      <c r="AN77" s="28"/>
+      <c r="AO77" s="28"/>
+      <c r="AP77" s="28"/>
+      <c r="AQ77" s="28"/>
+      <c r="AR77" s="29"/>
+      <c r="AS77" s="30"/>
+      <c r="AT77" s="28"/>
+      <c r="AU77" s="28"/>
+      <c r="AV77" s="28"/>
+      <c r="AW77" s="28"/>
+      <c r="AX77" s="28"/>
+      <c r="AY77" s="29"/>
+      <c r="AZ77" s="30"/>
+      <c r="BA77" s="28"/>
+      <c r="BB77" s="28"/>
+      <c r="BC77" s="28"/>
+      <c r="BD77" s="28"/>
+      <c r="BE77" s="28"/>
+      <c r="BF77" s="29"/>
+      <c r="BG77" s="30"/>
+      <c r="BH77" s="31"/>
+      <c r="BI77" s="28"/>
+      <c r="BJ77" s="28"/>
+      <c r="BK77" s="28"/>
+      <c r="BL77" s="28"/>
+      <c r="BM77" s="29"/>
+      <c r="BN77" s="30"/>
+      <c r="BO77" s="28"/>
+      <c r="BP77" s="28"/>
+      <c r="BQ77" s="28"/>
+      <c r="BR77" s="28"/>
+      <c r="BS77" s="28"/>
+      <c r="BT77" s="29"/>
+      <c r="BU77" s="31"/>
+      <c r="BV77" s="28"/>
+      <c r="BW77" s="28"/>
+      <c r="BX77" s="28"/>
+      <c r="BY77" s="28"/>
+      <c r="BZ77" s="31"/>
+      <c r="CA77" s="29"/>
+      <c r="CB77" s="30"/>
+    </row>
+    <row r="78" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A78" s="95"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="28"/>
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="28"/>
+      <c r="AC78" s="33"/>
+      <c r="AD78" s="29"/>
+      <c r="AE78" s="30"/>
+      <c r="AF78" s="28"/>
+      <c r="AG78" s="28"/>
+      <c r="AH78" s="33"/>
+      <c r="AI78" s="28"/>
+      <c r="AJ78" s="28"/>
+      <c r="AK78" s="29"/>
+      <c r="AL78" s="30"/>
+      <c r="AM78" s="28"/>
+      <c r="AN78" s="28"/>
+      <c r="AO78" s="28"/>
+      <c r="AP78" s="28"/>
+      <c r="AQ78" s="28"/>
+      <c r="AR78" s="29"/>
+      <c r="AS78" s="30"/>
+      <c r="AT78" s="28"/>
+      <c r="AU78" s="28"/>
+      <c r="AV78" s="28"/>
+      <c r="AW78" s="28"/>
+      <c r="AX78" s="28"/>
+      <c r="AY78" s="29"/>
+      <c r="AZ78" s="30"/>
+      <c r="BA78" s="28"/>
+      <c r="BB78" s="28"/>
+      <c r="BC78" s="28"/>
+      <c r="BD78" s="28"/>
+      <c r="BE78" s="28"/>
+      <c r="BF78" s="29"/>
+      <c r="BG78" s="30"/>
+      <c r="BH78" s="31"/>
+      <c r="BI78" s="28"/>
+      <c r="BJ78" s="28"/>
+      <c r="BK78" s="28"/>
+      <c r="BL78" s="28"/>
+      <c r="BM78" s="29"/>
+      <c r="BN78" s="30"/>
+      <c r="BO78" s="28"/>
+      <c r="BP78" s="28"/>
+      <c r="BQ78" s="28"/>
+      <c r="BR78" s="28"/>
+      <c r="BS78" s="28"/>
+      <c r="BT78" s="29"/>
+      <c r="BU78" s="31"/>
+      <c r="BV78" s="28"/>
+      <c r="BW78" s="28"/>
+      <c r="BX78" s="28"/>
+      <c r="BY78" s="28"/>
+      <c r="BZ78" s="31"/>
+      <c r="CA78" s="29"/>
+      <c r="CB78" s="30"/>
+    </row>
+    <row r="79" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A79" s="43"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="30"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="28"/>
+      <c r="Z79" s="28"/>
+      <c r="AA79" s="28"/>
+      <c r="AB79" s="28"/>
+      <c r="AC79" s="33"/>
+      <c r="AD79" s="29"/>
+      <c r="AE79" s="30"/>
+      <c r="AF79" s="28"/>
+      <c r="AG79" s="28"/>
+      <c r="AH79" s="33"/>
+      <c r="AI79" s="28"/>
+      <c r="AJ79" s="28"/>
+      <c r="AK79" s="29"/>
+      <c r="AL79" s="30"/>
+      <c r="AM79" s="28"/>
+      <c r="AN79" s="28"/>
+      <c r="AO79" s="28"/>
+      <c r="AP79" s="28"/>
+      <c r="AQ79" s="28"/>
+      <c r="AR79" s="29"/>
+      <c r="AS79" s="30"/>
+      <c r="AT79" s="28"/>
+      <c r="AU79" s="28"/>
+      <c r="AV79" s="28"/>
+      <c r="AW79" s="28"/>
+      <c r="AX79" s="28"/>
+      <c r="AY79" s="29"/>
+      <c r="AZ79" s="30"/>
+      <c r="BA79" s="28"/>
+      <c r="BB79" s="28"/>
+      <c r="BC79" s="28"/>
+      <c r="BD79" s="28"/>
+      <c r="BE79" s="28"/>
+      <c r="BF79" s="29"/>
+      <c r="BG79" s="30"/>
+      <c r="BH79" s="31"/>
+      <c r="BI79" s="28"/>
+      <c r="BJ79" s="28"/>
+      <c r="BK79" s="28"/>
+      <c r="BL79" s="28"/>
+      <c r="BM79" s="29"/>
+      <c r="BN79" s="30"/>
+      <c r="BO79" s="28"/>
+      <c r="BP79" s="28"/>
+      <c r="BQ79" s="28"/>
+      <c r="BR79" s="28"/>
+      <c r="BS79" s="28"/>
+      <c r="BT79" s="29"/>
+      <c r="BU79" s="31"/>
+      <c r="BV79" s="28"/>
+      <c r="BW79" s="28"/>
+      <c r="BX79" s="28"/>
+      <c r="BY79" s="28"/>
+      <c r="BZ79" s="31"/>
+      <c r="CA79" s="29"/>
+      <c r="CB79" s="30"/>
+    </row>
+    <row r="80" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A80" s="43"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="33"/>
+      <c r="W80" s="29"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="28"/>
+      <c r="AC80" s="33"/>
+      <c r="AD80" s="29"/>
+      <c r="AE80" s="30"/>
+      <c r="AF80" s="28"/>
+      <c r="AG80" s="28"/>
+      <c r="AH80" s="33"/>
+      <c r="AI80" s="28"/>
+      <c r="AJ80" s="28"/>
+      <c r="AK80" s="29"/>
+      <c r="AL80" s="30"/>
+      <c r="AM80" s="28"/>
+      <c r="AN80" s="28"/>
+      <c r="AO80" s="28"/>
+      <c r="AP80" s="28"/>
+      <c r="AQ80" s="28"/>
+      <c r="AR80" s="29"/>
+      <c r="AS80" s="30"/>
+      <c r="AT80" s="28"/>
+      <c r="AU80" s="28"/>
+      <c r="AV80" s="28"/>
+      <c r="AW80" s="28"/>
+      <c r="AX80" s="28"/>
+      <c r="AY80" s="29"/>
+      <c r="AZ80" s="30"/>
+      <c r="BA80" s="28"/>
+      <c r="BB80" s="28"/>
+      <c r="BC80" s="28"/>
+      <c r="BD80" s="28"/>
+      <c r="BE80" s="28"/>
+      <c r="BF80" s="29"/>
+      <c r="BG80" s="30"/>
+      <c r="BH80" s="31"/>
+      <c r="BI80" s="28"/>
+      <c r="BJ80" s="28"/>
+      <c r="BK80" s="28"/>
+      <c r="BL80" s="28"/>
+      <c r="BM80" s="29"/>
+      <c r="BN80" s="30"/>
+      <c r="BO80" s="28"/>
+      <c r="BP80" s="28"/>
+      <c r="BQ80" s="28"/>
+      <c r="BR80" s="28"/>
+      <c r="BS80" s="28"/>
+      <c r="BT80" s="29"/>
+      <c r="BU80" s="31"/>
+      <c r="BV80" s="28"/>
+      <c r="BW80" s="28"/>
+      <c r="BX80" s="28"/>
+      <c r="BY80" s="28"/>
+      <c r="BZ80" s="31"/>
+      <c r="CA80" s="29"/>
+      <c r="CB80" s="30"/>
+    </row>
+    <row r="81" spans="1:80" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A81" s="43"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="29"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="28"/>
+      <c r="AC81" s="33"/>
+      <c r="AD81" s="29"/>
+      <c r="AE81" s="30"/>
+      <c r="AF81" s="28"/>
+      <c r="AG81" s="28"/>
+      <c r="AH81" s="33"/>
+      <c r="AI81" s="28"/>
+      <c r="AJ81" s="28"/>
+      <c r="AK81" s="29"/>
+      <c r="AL81" s="30"/>
+      <c r="AM81" s="28"/>
+      <c r="AN81" s="28"/>
+      <c r="AO81" s="28"/>
+      <c r="AP81" s="28"/>
+      <c r="AQ81" s="28"/>
+      <c r="AR81" s="29"/>
+      <c r="AS81" s="30"/>
+      <c r="AT81" s="28"/>
+      <c r="AU81" s="28"/>
+      <c r="AV81" s="28"/>
+      <c r="AW81" s="28"/>
+      <c r="AX81" s="28"/>
+      <c r="AY81" s="29"/>
+      <c r="AZ81" s="30"/>
+      <c r="BA81" s="28"/>
+      <c r="BB81" s="28"/>
+      <c r="BC81" s="28"/>
+      <c r="BD81" s="28"/>
+      <c r="BE81" s="28"/>
+      <c r="BF81" s="29"/>
+      <c r="BG81" s="30"/>
+      <c r="BH81" s="31"/>
+      <c r="BI81" s="28"/>
+      <c r="BJ81" s="28"/>
+      <c r="BK81" s="28"/>
+      <c r="BL81" s="28"/>
+      <c r="BM81" s="29"/>
+      <c r="BN81" s="30"/>
+      <c r="BO81" s="28"/>
+      <c r="BP81" s="28"/>
+      <c r="BQ81" s="28"/>
+      <c r="BR81" s="28"/>
+      <c r="BS81" s="28"/>
+      <c r="BT81" s="29"/>
+      <c r="BU81" s="31"/>
+      <c r="BV81" s="28"/>
+      <c r="BW81" s="28"/>
+      <c r="BX81" s="28"/>
+      <c r="BY81" s="28"/>
+      <c r="BZ81" s="31"/>
+      <c r="CA81" s="29"/>
+      <c r="CB81" s="30"/>
+    </row>
+    <row r="82" spans="1:80" ht="15" customHeight="1">
+      <c r="B82" s="79"/>
+      <c r="C82" s="8"/>
       <c r="BA82" s="25"/>
       <c r="BB82" s="25"/>
       <c r="BC82" s="25"/>
       <c r="BD82" s="25"/>
       <c r="BE82" s="25"/>
     </row>
-    <row r="83" spans="2:57">
-      <c r="B83" s="49"/>
+    <row r="83" spans="1:80">
+      <c r="B83" s="79"/>
       <c r="BA83" s="25"/>
       <c r="BB83" s="25"/>
       <c r="BC83" s="25"/>
       <c r="BD83" s="25"/>
       <c r="BE83" s="25"/>
     </row>
-    <row r="84" spans="2:57">
-      <c r="B84" s="49"/>
-    </row>
-    <row r="85" spans="2:57">
-      <c r="B85" s="49"/>
-    </row>
-    <row r="86" spans="2:57">
-      <c r="B86" s="49"/>
+    <row r="84" spans="1:80">
+      <c r="B84" s="79"/>
+      <c r="BA84" s="25"/>
+      <c r="BB84" s="25"/>
+      <c r="BC84" s="25"/>
+      <c r="BD84" s="25"/>
+      <c r="BE84" s="25"/>
+    </row>
+    <row r="85" spans="1:80">
+      <c r="B85" s="79"/>
+      <c r="BA85" s="25"/>
+      <c r="BB85" s="25"/>
+      <c r="BC85" s="25"/>
+      <c r="BD85" s="25"/>
+      <c r="BE85" s="25"/>
+    </row>
+    <row r="86" spans="1:80">
+      <c r="B86" s="79"/>
+      <c r="BA86" s="25"/>
+      <c r="BB86" s="25"/>
+      <c r="BC86" s="25"/>
+      <c r="BD86" s="25"/>
+      <c r="BE86" s="25"/>
+    </row>
+    <row r="87" spans="1:80">
+      <c r="B87" s="79"/>
+      <c r="BA87" s="25"/>
+      <c r="BB87" s="25"/>
+      <c r="BC87" s="25"/>
+      <c r="BD87" s="25"/>
+      <c r="BE87" s="25"/>
+    </row>
+    <row r="88" spans="1:80">
+      <c r="B88" s="79"/>
+      <c r="BA88" s="25"/>
+      <c r="BB88" s="25"/>
+      <c r="BC88" s="25"/>
+      <c r="BD88" s="25"/>
+      <c r="BE88" s="25"/>
+    </row>
+    <row r="89" spans="1:80">
+      <c r="B89" s="79"/>
+      <c r="BA89" s="25"/>
+      <c r="BB89" s="25"/>
+      <c r="BC89" s="25"/>
+      <c r="BD89" s="25"/>
+      <c r="BE89" s="25"/>
+    </row>
+    <row r="90" spans="1:80">
+      <c r="B90" s="79"/>
+      <c r="BA90" s="25"/>
+      <c r="BB90" s="25"/>
+      <c r="BC90" s="25"/>
+      <c r="BD90" s="25"/>
+      <c r="BE90" s="25"/>
+    </row>
+    <row r="91" spans="1:80">
+      <c r="B91" s="79"/>
+      <c r="BA91" s="25"/>
+      <c r="BB91" s="25"/>
+      <c r="BC91" s="25"/>
+      <c r="BD91" s="25"/>
+      <c r="BE91" s="25"/>
+    </row>
+    <row r="92" spans="1:80">
+      <c r="B92" s="79"/>
+    </row>
+    <row r="93" spans="1:80">
+      <c r="B93" s="79"/>
+    </row>
+    <row r="94" spans="1:80">
+      <c r="B94" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B61:B94"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="AM6:AS6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:Q6"/>
     <mergeCell ref="D2:CB2"/>
     <mergeCell ref="AC4:BG4"/>
     <mergeCell ref="BH4:CB4"/>
@@ -9121,14 +10903,1492 @@
     <mergeCell ref="BH6:BN6"/>
     <mergeCell ref="BO6:BU6"/>
     <mergeCell ref="BV6:CB6"/>
-    <mergeCell ref="B53:B86"/>
-    <mergeCell ref="AF6:AL6"/>
-    <mergeCell ref="AM6:AS6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:Q6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM206"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" s="86" customFormat="1"/>
+    <row r="3" spans="2:4" ht="18.75">
+      <c r="B3" s="64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="86" customFormat="1" ht="18.75">
+      <c r="B4" s="64"/>
+    </row>
+    <row r="5" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C5" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C6" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C7" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C8" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C9" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C10" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C11" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C12" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C13" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C14" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C15" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C16" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C17" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C18" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C19" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" hidden="1" outlineLevel="1"/>
+    <row r="21" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1"/>
+    <row r="22" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C22" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C23" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="83"/>
+    </row>
+    <row r="24" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C24" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="83"/>
+    </row>
+    <row r="25" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C25" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="83"/>
+    </row>
+    <row r="26" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C26" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="83"/>
+    </row>
+    <row r="27" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C27" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="83"/>
+    </row>
+    <row r="28" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C28" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="83"/>
+    </row>
+    <row r="29" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1"/>
+    <row r="30" spans="2:4" s="86" customFormat="1" collapsed="1"/>
+    <row r="31" spans="2:4" s="86" customFormat="1"/>
+    <row r="32" spans="2:4" s="86" customFormat="1" ht="18.75">
+      <c r="B32" s="64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="3:39" s="86" customFormat="1">
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+    </row>
+    <row r="34" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C34" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="88">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C35" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="88"/>
+    </row>
+    <row r="36" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1"/>
+    <row r="37" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C37" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C38" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="83"/>
+    </row>
+    <row r="39" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C39" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="83"/>
+    </row>
+    <row r="40" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C40" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="83"/>
+    </row>
+    <row r="41" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C41" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="83"/>
+    </row>
+    <row r="42" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C42" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="83"/>
+    </row>
+    <row r="43" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C43" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="83"/>
+    </row>
+    <row r="44" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C44" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="83"/>
+    </row>
+    <row r="45" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C45" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="83"/>
+    </row>
+    <row r="46" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C46" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="83"/>
+    </row>
+    <row r="47" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C47" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="83"/>
+    </row>
+    <row r="48" spans="3:39" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C48" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="83"/>
+    </row>
+    <row r="49" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C49" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="83"/>
+    </row>
+    <row r="50" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C50" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="83"/>
+    </row>
+    <row r="51" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C51" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="83"/>
+    </row>
+    <row r="52" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C52" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="83"/>
+    </row>
+    <row r="53" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C53" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="83"/>
+    </row>
+    <row r="54" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C54" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="83"/>
+    </row>
+    <row r="55" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C55" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="83"/>
+    </row>
+    <row r="56" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C56" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="83"/>
+    </row>
+    <row r="57" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C57" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="83"/>
+    </row>
+    <row r="58" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C58" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="83"/>
+    </row>
+    <row r="59" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C59" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" s="83"/>
+    </row>
+    <row r="60" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C60" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" s="83"/>
+    </row>
+    <row r="61" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C61" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="D61" s="83"/>
+    </row>
+    <row r="62" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C62" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="83"/>
+    </row>
+    <row r="63" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C63" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="83"/>
+    </row>
+    <row r="64" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C64" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="83"/>
+    </row>
+    <row r="65" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C65" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" s="83"/>
+    </row>
+    <row r="66" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C66" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="83"/>
+    </row>
+    <row r="67" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C67" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="83"/>
+    </row>
+    <row r="68" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C68" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="83"/>
+    </row>
+    <row r="69" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1"/>
+    <row r="70" spans="1:4" s="86" customFormat="1" collapsed="1"/>
+    <row r="71" spans="1:4" s="86" customFormat="1"/>
+    <row r="72" spans="1:4" s="86" customFormat="1"/>
+    <row r="73" spans="1:4" s="86" customFormat="1" ht="18.75">
+      <c r="B73" s="64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="86" customFormat="1"/>
+    <row r="75" spans="1:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="A75" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75" s="64"/>
+      <c r="C75" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B76" s="64"/>
+      <c r="C76" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B77" s="64"/>
+    </row>
+    <row r="78" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C78" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C79" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="82"/>
+    </row>
+    <row r="80" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C80" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="82"/>
+    </row>
+    <row r="81" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C81" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="82"/>
+    </row>
+    <row r="82" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C82" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="82"/>
+    </row>
+    <row r="83" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C83" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="82"/>
+    </row>
+    <row r="84" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C84" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="82"/>
+    </row>
+    <row r="85" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C85" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="82"/>
+    </row>
+    <row r="86" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C86" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="82"/>
+    </row>
+    <row r="87" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C87" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="82"/>
+    </row>
+    <row r="88" spans="1:4" hidden="1" outlineLevel="1"/>
+    <row r="89" spans="1:4" collapsed="1"/>
+    <row r="90" spans="1:4" s="86" customFormat="1" ht="18.75">
+      <c r="B90" s="64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="86" customFormat="1" ht="18.75">
+      <c r="B91" s="64"/>
+    </row>
+    <row r="92" spans="1:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="A92" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" s="64"/>
+      <c r="C92" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B93" s="64"/>
+      <c r="C93" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D93" s="88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B94" s="64"/>
+      <c r="C94" s="84"/>
+    </row>
+    <row r="95" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C95" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C96" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="89"/>
+    </row>
+    <row r="97" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C97" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="89"/>
+    </row>
+    <row r="98" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C98" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="89"/>
+    </row>
+    <row r="99" spans="1:4" hidden="1" outlineLevel="1"/>
+    <row r="100" spans="1:4" s="86" customFormat="1" collapsed="1"/>
+    <row r="101" spans="1:4" s="86" customFormat="1"/>
+    <row r="102" spans="1:4" s="86" customFormat="1" ht="18.75">
+      <c r="B102" s="64" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="86" customFormat="1" ht="18.75">
+      <c r="B103" s="64"/>
+    </row>
+    <row r="104" spans="1:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="A104" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="B104" s="64"/>
+      <c r="C104" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" s="88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B105" s="64"/>
+      <c r="C105" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105" s="88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B106" s="64"/>
+    </row>
+    <row r="107" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C107" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="C108" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" s="89"/>
+    </row>
+    <row r="109" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C109" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" s="89"/>
+    </row>
+    <row r="110" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C110" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" s="89"/>
+    </row>
+    <row r="111" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C111" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111" s="89"/>
+    </row>
+    <row r="112" spans="1:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C112" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D112" s="89"/>
+    </row>
+    <row r="113" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C113" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="89"/>
+    </row>
+    <row r="114" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C114" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" s="89"/>
+    </row>
+    <row r="115" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C115" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="89"/>
+    </row>
+    <row r="116" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C116" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" s="89"/>
+    </row>
+    <row r="117" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C117" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="89"/>
+    </row>
+    <row r="118" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C118" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" s="89"/>
+    </row>
+    <row r="119" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1"/>
+    <row r="120" spans="2:4" s="86" customFormat="1" collapsed="1"/>
+    <row r="121" spans="2:4" s="86" customFormat="1"/>
+    <row r="122" spans="2:4" s="86" customFormat="1" ht="18.75">
+      <c r="B122" s="64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" s="86" customFormat="1" ht="18.75">
+      <c r="B123" s="64"/>
+    </row>
+    <row r="124" spans="2:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B124" s="64"/>
+      <c r="C124" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" s="88">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B125" s="64"/>
+      <c r="C125" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D125" s="88">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B126" s="64"/>
+    </row>
+    <row r="127" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C127" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C128" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" s="89"/>
+    </row>
+    <row r="129" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C129" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D129" s="89"/>
+    </row>
+    <row r="130" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C130" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130" s="89"/>
+    </row>
+    <row r="131" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C131" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D131" s="89"/>
+    </row>
+    <row r="132" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C132" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="D132" s="89"/>
+    </row>
+    <row r="133" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C133" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="D133" s="89"/>
+    </row>
+    <row r="134" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C134" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134" s="89"/>
+    </row>
+    <row r="135" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C135" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D135" s="89"/>
+    </row>
+    <row r="136" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C136" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136" s="89"/>
+    </row>
+    <row r="137" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C137" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D137" s="89"/>
+    </row>
+    <row r="138" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C138" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" s="89"/>
+    </row>
+    <row r="139" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C139" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D139" s="89"/>
+    </row>
+    <row r="140" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C140" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D140" s="89"/>
+    </row>
+    <row r="141" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C141" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D141" s="89"/>
+    </row>
+    <row r="142" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C142" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" s="89"/>
+    </row>
+    <row r="143" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C143" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="D143" s="89"/>
+    </row>
+    <row r="144" spans="3:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C144" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D144" s="89"/>
+    </row>
+    <row r="145" spans="2:18" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C145" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="D145" s="89"/>
+    </row>
+    <row r="146" spans="2:18" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C146" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D146" s="89"/>
+    </row>
+    <row r="147" spans="2:18" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C147" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D147" s="89"/>
+    </row>
+    <row r="148" spans="2:18" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C148" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="D148" s="89"/>
+    </row>
+    <row r="149" spans="2:18" s="86" customFormat="1" hidden="1" outlineLevel="1"/>
+    <row r="150" spans="2:18" s="86" customFormat="1" collapsed="1"/>
+    <row r="152" spans="2:18" s="86" customFormat="1" ht="18.75">
+      <c r="B152" s="64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="153" spans="2:18" s="86" customFormat="1" ht="18.75">
+      <c r="B153" s="64"/>
+    </row>
+    <row r="154" spans="2:18" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B154" s="64"/>
+      <c r="C154" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D154" s="88"/>
+    </row>
+    <row r="155" spans="2:18" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B155" s="64"/>
+      <c r="C155" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D155" s="88"/>
+    </row>
+    <row r="156" spans="2:18" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B156" s="64"/>
+    </row>
+    <row r="157" spans="2:18" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C157" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D157" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="158" spans="2:18" hidden="1" outlineLevel="1">
+      <c r="C158" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D158" s="82"/>
+    </row>
+    <row r="159" spans="2:18" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C159" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D159" s="82"/>
+      <c r="F159" s="87"/>
+      <c r="G159" s="87"/>
+      <c r="H159" s="87"/>
+      <c r="I159" s="87"/>
+      <c r="J159" s="87"/>
+      <c r="K159" s="87"/>
+      <c r="L159" s="87"/>
+      <c r="M159" s="87"/>
+      <c r="N159" s="87"/>
+      <c r="O159" s="87"/>
+      <c r="P159" s="87"/>
+      <c r="Q159" s="87"/>
+      <c r="R159" s="87"/>
+    </row>
+    <row r="160" spans="2:18" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C160" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D160" s="82"/>
+    </row>
+    <row r="161" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C161" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" s="82"/>
+    </row>
+    <row r="162" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C162" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D162" s="82"/>
+    </row>
+    <row r="163" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C163" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D163" s="82"/>
+    </row>
+    <row r="164" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C164" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D164" s="82"/>
+    </row>
+    <row r="165" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C165" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D165" s="82"/>
+    </row>
+    <row r="166" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C166" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D166" s="82"/>
+    </row>
+    <row r="167" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C167" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="D167" s="82"/>
+    </row>
+    <row r="168" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C168" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D168" s="82"/>
+    </row>
+    <row r="169" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C169" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D169" s="82"/>
+    </row>
+    <row r="170" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C170" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="D170" s="82"/>
+    </row>
+    <row r="171" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1"/>
+    <row r="172" spans="2:4" s="86" customFormat="1" collapsed="1"/>
+    <row r="173" spans="2:4" s="86" customFormat="1"/>
+    <row r="174" spans="2:4" s="86" customFormat="1" ht="18.75">
+      <c r="B174" s="64" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" s="86" customFormat="1" ht="18.75">
+      <c r="B175" s="64"/>
+    </row>
+    <row r="176" spans="2:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B176" s="64"/>
+      <c r="C176" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D176" s="88">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B177" s="64"/>
+      <c r="C177" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D177" s="88">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" s="86" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="B178" s="64"/>
+    </row>
+    <row r="179" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C179" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D179" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" s="86" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="C180" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D180" s="82"/>
+    </row>
+    <row r="181" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C181" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D181" s="82"/>
+    </row>
+    <row r="182" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C182" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D182" s="82"/>
+    </row>
+    <row r="183" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C183" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="D183" s="82"/>
+    </row>
+    <row r="184" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C184" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D184" s="82"/>
+    </row>
+    <row r="185" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C185" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D185" s="82"/>
+    </row>
+    <row r="186" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C186" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D186" s="82"/>
+    </row>
+    <row r="187" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C187" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D187" s="82"/>
+    </row>
+    <row r="188" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C188" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D188" s="82"/>
+    </row>
+    <row r="189" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C189" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D189" s="82"/>
+    </row>
+    <row r="190" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C190" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D190" s="82"/>
+    </row>
+    <row r="191" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C191" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="D191" s="82"/>
+    </row>
+    <row r="192" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="C192" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D192" s="82"/>
+    </row>
+    <row r="193" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C193" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D193" s="82"/>
+    </row>
+    <row r="194" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C194" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D194" s="82"/>
+    </row>
+    <row r="195" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C195" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D195" s="82"/>
+    </row>
+    <row r="196" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C196" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D196" s="82"/>
+    </row>
+    <row r="197" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C197" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D197" s="82"/>
+    </row>
+    <row r="198" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C198" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D198" s="82"/>
+    </row>
+    <row r="199" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C199" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="D199" s="82"/>
+    </row>
+    <row r="200" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C200" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="D200" s="82"/>
+    </row>
+    <row r="201" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C201" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D201" s="82"/>
+    </row>
+    <row r="202" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C202" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="D202" s="82"/>
+    </row>
+    <row r="203" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C203" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="D203" s="82"/>
+    </row>
+    <row r="204" spans="3:4" hidden="1" outlineLevel="1">
+      <c r="C204" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D204" s="82"/>
+    </row>
+    <row r="205" spans="3:4" hidden="1" outlineLevel="1"/>
+    <row r="206" spans="3:4" collapsed="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="35"/>
+    <col min="2" max="2" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18.75">
+      <c r="B2" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="50"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="54"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="55"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="51"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="18.75">
+      <c r="B27" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="62"/>
+      <c r="D39" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="62"/>
+      <c r="D44" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="59"/>
+      <c r="D45" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="D46" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="D47" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="D48" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>